--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="2655" yWindow="30" windowWidth="15075" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="10月21日" sheetId="6" r:id="rId1"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId2"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId3"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId4"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId5"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId6"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId1"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId2"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId3"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId4"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId5"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId6"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -1409,6 +1410,245 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月22日～10月28日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GitHubのアカウント作成</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・FS88を購入したサイトに問い合わせの送信</t>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バイオメトリクスの資料の作成</t>
+    <rPh sb="10" eb="12">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン管理ツールとして用いるためにGitHubのアカウントを作成しました。</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bayometricのお問い合わせフォームから領収書にどんな内容が記載されているか質問を送りました。</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下、問い合わせフォームに記載した事項です。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The reason I am making the inquiry to you is I'd like to ask some questions about the receipt.</t>
+  </si>
+  <si>
+    <t>I am thinking about buying the Futronic FS88 from your company.</t>
+  </si>
+  <si>
+    <t>If I buy the Futronic FS88,may I have a receipt?</t>
+  </si>
+  <si>
+    <t>Also, if I get a receipt,Could you tell me about what is written on the receipt?</t>
+  </si>
+  <si>
+    <t>Would have been written "the name of the company that purchased (the name of your company)","the date of the purchase","the name of the purchase product","the purchase price (product price + shipping fee)" in the receipt ?</t>
+  </si>
+  <si>
+    <t>If you like,please tell me.</t>
+  </si>
+  <si>
+    <t>返信されたメールには領収書に知りたい事柄(必要な情報)は記載されているということがわかりました。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>リョウシュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コトガラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub for Windowsを使用してコミットの方法について学び、</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のリポジトリにドキュメントのコミットを行いました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/takuito/Documents</t>
+  </si>
+  <si>
+    <t>・クラス図の勉強</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧の作成</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜ生体認証として指紋認証を選んだのかということが発表時に言えるようにバイオメトリクスの資料を作成しました。</t>
+    <rPh sb="2" eb="4">
+      <t>セイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のところはなし。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1802,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,7 +2096,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1866,17 +2106,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1886,97 +2126,130 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2030,7 +2303,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2043,52 +2316,102 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2154,7 +2477,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2164,68 +2487,55 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2237,11 +2547,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2293,7 +2601,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2303,12 +2611,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2318,98 +2626,69 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2461,7 +2740,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2471,94 +2750,111 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2612,6 +2908,157 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,20 +7,21 @@
     <workbookView xWindow="2655" yWindow="30" windowWidth="15075" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="10月28日" sheetId="7" r:id="rId1"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId2"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId3"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId4"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId5"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId6"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId7"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId1"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId2"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId3"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId4"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId5"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId6"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId7"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -1649,6 +1650,241 @@
     <t>現在のところはなし。</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月29日～11月4日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の勉強</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7の価格調査・購入</t>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(週末は頭の中をリフレッシュするために休む様に樋原さんから指示を頂いたため、あまり作業を行いませんでした。)</t>
+    <rPh sb="1" eb="3">
+      <t>シュウマツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒバラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトや「ITアーキテクトのためのシステム設計実践ガイドVol.3」という本の機能一覧について</t>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッセン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書かれていたページを読んで機能一覧について勉強をしました。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧を大分類、中分類、小分類にわけて作成を行おうと考えています。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器と接続するAndroid端末として使用する機器であるNexus7の価格について調査しました。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格.comなどで調査を行いましたが、新品の場合は送料などを含めるとどこでもあまり価格は変わりませんでした。</t>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンピン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこで、1%分のポイントが付き、早く届くという理由で購入先としてAmazonを選択しました。</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1731,7 +1967,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1745,6 +1981,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2042,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2096,7 +2338,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2105,18 +2347,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2125,131 +2367,86 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2303,7 +2500,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2313,17 +2510,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2333,97 +2530,130 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2477,7 +2707,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2490,52 +2720,102 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2601,7 +2881,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2611,68 +2891,55 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2684,11 +2951,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2740,7 +3005,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2750,12 +3015,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2765,98 +3030,69 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2908,7 +3144,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2918,94 +3154,111 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3059,6 +3312,157 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="2655" yWindow="30" windowWidth="15075" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="11月4日" sheetId="8" r:id="rId1"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId2"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId3"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId4"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId5"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId6"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId7"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId8"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId1"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId2"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId3"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId4"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId5"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId6"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId7"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId8"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -1885,6 +1886,137 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月5日～11月11日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の作成</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類、中分類、小分類に項目を分けて機能一覧表の作成を行った。</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表には機能や説明の記載をした。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読んで、UMLの捉え方(ソフトウェア的観点と概念的観点)や</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記法とメタモデルといった定義、開発プロセス(ウォーターフォール型プロセスと反復型プロセス)</t>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>について学んだ。</t>
+    <rPh sb="4" eb="5">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリケーションの作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2284,13 +2416,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -2337,104 +2470,94 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="C16" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
+      <c r="B23" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2500,7 +2623,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2509,18 +2632,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2529,133 +2652,90 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2707,7 +2787,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2717,17 +2797,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2737,97 +2817,130 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2881,7 +2994,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2894,52 +3007,102 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3114,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3005,7 +3168,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3015,68 +3178,55 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3088,11 +3238,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3144,7 +3292,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3154,12 +3302,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3169,98 +3317,69 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3312,7 +3431,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3322,94 +3441,111 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3463,6 +3599,157 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,22 +7,23 @@
     <workbookView xWindow="2655" yWindow="30" windowWidth="15075" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="11月11日" sheetId="9" r:id="rId1"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId2"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId3"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId4"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId5"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId6"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId7"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId8"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId9"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId1"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId2"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId3"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId4"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId5"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId6"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId7"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId8"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId9"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2017,6 +2018,208 @@
     <t>・アプリケーションの作成</t>
     <rPh sb="10" eb="12">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月12日～11月18日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Android端末にサンプルアプリのインストール</t>
+    <rPh sb="8" eb="10">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の修正</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリケーションの実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド・実行によりAndroid端末にインストールを行った。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7では最初にUSBを接続しただけでは機器の識別ができなかったため、</t>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「NEXUS media importer」をインストール後、デフォルト言語を英語にして再起動を</t>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行ったところ、機器の識別が行えるようになった。</t>
+    <rPh sb="0" eb="1">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後、指紋認証機器FS88の3つのサンプルプロジェクトをEclipseにインポートをして、</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(プロパティの属性や関連、多重度やノートとコメントなど)</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読んで、クラス図の基本的要素について学んだ。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装がこれまでは行えなかったため、今後は実装の作業をペースを上げて実施していくこと。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.問題・課題・対応策</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2416,7 +2619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2471,7 +2674,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2481,7 +2684,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2496,68 +2699,78 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2567,9 +2780,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2623,7 +2836,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2632,114 +2845,138 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -2786,161 +3023,106 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2994,7 +3176,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3003,18 +3185,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3023,86 +3205,74 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3112,11 +3282,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3168,7 +3340,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3178,67 +3350,150 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3292,7 +3547,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3302,68 +3557,105 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3373,13 +3665,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3431,7 +3721,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3441,111 +3731,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3599,7 +3845,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3609,96 +3855,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3750,7 +3984,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3760,7 +3994,175 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3770,113 +4172,77 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="30" windowWidth="15075" windowHeight="9180"/>
+    <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月18日" sheetId="10" r:id="rId1"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId2"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId3"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId4"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId5"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId6"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId7"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId8"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId9"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId10"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId1"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId2"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId3"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId4"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId5"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId6"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId7"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId8"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId9"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId10"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2220,6 +2221,210 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月19日～11月25日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリ画面図の作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリの調査・作成</t>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器を用いたアプリ画面の図を作成した。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの起動から指紋の登録の流れなどを記載した。</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成した機能一覧表を札幌営業所で樋原さん、前田さん、立石さんに見て頂き、</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>エイギョウショ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂いた指摘やアドバイスを元に大項目の削除や備考の項目の追加などを行った。</t>
+    <rPh sb="14" eb="17">
+      <t>ダイコウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルアプリがどの様にデバイスオープンやクローズなどを行っているかという様な</t>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの流れについてソースコードの調査を行った。</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは機器のオープン・クローズを行える機能を実装し、</t>
+    <rPh sb="3" eb="5">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後に指紋登録や削除などの機能を実装する予定である。</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2619,7 +2824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2674,7 +2879,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2684,92 +2889,100 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
+      <c r="C16" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
+      <c r="C20" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2782,7 +2995,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2836,7 +3049,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2846,7 +3059,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2856,127 +3069,90 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3023,104 +3199,139 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -3128,7 +3339,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3175,104 +3387,104 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
+      <c r="C17" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>103</v>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
+      <c r="B24" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3282,17 +3494,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3339,161 +3550,106 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3547,7 +3703,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3556,18 +3712,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3576,86 +3732,74 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3665,11 +3809,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3721,7 +3867,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3731,67 +3877,150 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3845,7 +4074,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3855,68 +4084,105 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3926,13 +4192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3984,7 +4248,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3994,111 +4258,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4152,7 +4372,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4162,87 +4382,243 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,24 +7,26 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月25日" sheetId="11" r:id="rId1"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId2"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId3"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId4"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId5"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId6"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId7"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId8"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId9"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId10"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId11"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId1"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId2"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId3"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId4"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId5"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId6"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId7"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId8"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId9"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId10"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId11"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId12"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2425,6 +2427,158 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月26日～12月2日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器が接続されたときにダイアログが出現し、許可すると押下すると落ちるため、その対策をすること。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの簡単なレイアウトや定義(string)について作成した。</t>
+    <rPh sb="4" eb="6">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後に指紋認証機器のオープンやクローズなどの機能について実装を試みている。</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月3日～12月9日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルアプリから移植出来る部分を実装して、</t>
+    <rPh sb="9" eb="11">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の登録、保存を行えるようにした。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルを利用してデータ管理を行えるようにすること。</t>
+  </si>
+  <si>
+    <t>指紋認証データを現在はディレクトリに保存しているだけなので、</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2824,7 +2978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2879,7 +3033,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2889,100 +3043,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2995,7 +3103,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3049,7 +3157,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3059,96 +3167,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3200,7 +3296,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3210,128 +3306,109 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -3339,8 +3416,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3387,123 +3463,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3550,112 +3614,148 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3702,104 +3802,61 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C10" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B16" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3809,17 +3866,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3866,167 +3922,131 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
+      <c r="B6" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B7" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
+      <c r="C11" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4073,116 +4093,104 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
+      <c r="A2" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4192,15 +4200,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4247,66 +4256,94 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4316,9 +4353,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4372,7 +4409,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4381,69 +4418,94 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
+      <c r="C12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
-        <v>58</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4453,12 +4515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -4511,7 +4573,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4521,104 +4583,441 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2579,6 +2579,119 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、USB接続時にUSBホスト機能がうまく動作せずにアプリが落ちるという問題があり、</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android4.1以降では簡単にログ解析が行えずに、原因の解析に時間がかかったが、</t>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Android端末の設定→開発者オプション→バグレポートを取得より、アプリが落ちた時のログが取得できたため、</t>
+    <rPh sb="7" eb="9">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因が解析できアプリが落ちるという問題は解消された。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリが落ちた原因はサンプルアプリから移植したプログラムが部分的であり、不完全であるためであった。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イショク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>フカンゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2978,7 +3091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3067,30 +3180,55 @@
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
     </row>

--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="12月9日" sheetId="13" r:id="rId1"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId2"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId3"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId4"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId5"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId6"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId7"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId8"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId9"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId10"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId11"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId12"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId13"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId1"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId2"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId3"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId4"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId5"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId6"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId7"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId8"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId9"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId10"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId11"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId12"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId13"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2692,6 +2693,126 @@
     </rPh>
     <rPh sb="36" eb="39">
       <t>フカンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月4日～12月16日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・N1プレゼンのリハーサル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを使用してデータ管理を行い、</t>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１種類の指紋の登録・削除を行えるようにした。</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土曜研修会後のミーティング時に</t>
+    <rPh sb="0" eb="2">
+      <t>ドヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンシュウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N1の発表があったため、</t>
+    <rPh sb="3" eb="5">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5分で発表を行えるように自宅でプレゼンの練習を行った。</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の照合</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の照合方法について調査し、アプリに実装すること。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3146,7 +3267,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3159,77 +3280,77 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
+      <c r="B13" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3362,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3295,7 +3416,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3305,68 +3426,55 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3378,11 +3486,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3434,7 +3540,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3444,12 +3550,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3459,98 +3565,69 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3602,7 +3679,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3612,94 +3689,111 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3753,7 +3847,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3763,7 +3857,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3773,127 +3867,90 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3940,73 +3997,141 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4061,7 +4186,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4071,100 +4196,79 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4175,9 +4279,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4232,7 +4336,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4242,92 +4346,49 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4338,9 +4399,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4395,7 +4456,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4405,83 +4466,101 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -4499,7 +4578,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4546,104 +4626,104 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
+      <c r="C17" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>103</v>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
+      <c r="B24" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4653,17 +4733,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4710,161 +4789,106 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4918,7 +4942,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4927,18 +4951,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4947,86 +4971,74 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5036,11 +5048,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5092,7 +5106,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5102,55 +5116,312 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,27 +7,28 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="12月16日" sheetId="14" r:id="rId1"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId2"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId3"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId4"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId5"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId6"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId7"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId8"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId9"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId10"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId11"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId12"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId13"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId14"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId1"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId2"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId3"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId4"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId5"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId6"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId7"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId8"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId9"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId10"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId11"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId12"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId13"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId14"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="176">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2697,22 +2698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>12月4日～12月16日</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・N1プレゼンのリハーサル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2813,6 +2798,124 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月10日～12月16日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月17日～12月23日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の登録を複数行えるようにした。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の指紋の削除や編集を行えるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後、照合機能を実装する</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、指紋の照合方法について調査を行った。</t>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の照合方法について調査をすること。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3212,7 +3315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3267,7 +3370,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3280,77 +3383,62 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="6" t="s">
-        <v>162</v>
+      <c r="A13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>166</v>
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="6" t="s">
-        <v>168</v>
+    <row r="18" spans="2:3">
+      <c r="C18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +3450,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3416,7 +3504,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3429,52 +3517,102 @@
         <v>62</v>
       </c>
     </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3540,7 +3678,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3550,68 +3688,55 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3623,11 +3748,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3679,7 +3802,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3689,12 +3812,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3704,98 +3827,69 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3847,7 +3941,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3857,94 +3951,111 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="C12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3998,7 +4109,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4008,7 +4119,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4018,127 +4129,90 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4185,103 +4259,141 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>153</v>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>159</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4336,7 +4448,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4349,47 +4461,77 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4399,9 +4541,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4456,7 +4598,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4466,100 +4608,79 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="6" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4570,9 +4691,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4748,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4637,92 +4758,49 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4733,9 +4811,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4790,7 +4868,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4800,83 +4878,101 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -4894,7 +4990,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4941,104 +5038,104 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C11" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
+      <c r="C17" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>103</v>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
+      <c r="B24" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5048,17 +5145,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -5105,161 +5201,106 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5313,7 +5354,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5322,18 +5363,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5342,86 +5383,74 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5429,4 +5458,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,28 +7,30 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="12月23日" sheetId="15" r:id="rId1"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId2"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId3"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId4"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId5"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId6"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId7"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId8"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId9"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId10"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId11"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId12"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId13"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId14"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId15"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId1"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId2"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId3"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId4"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId5"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId6"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId7"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId8"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId9"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId10"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId11"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId12"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId13"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId14"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId15"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId16"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="211">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -2916,6 +2918,415 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月24日～12月30日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の指紋の削除を行えるようにした。</t>
+  </si>
+  <si>
+    <t>指紋削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストを使用してデータ管理を行い、</t>
+  </si>
+  <si>
+    <t>指紋編集機能</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをタップするとListViewに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している指紋のデータ名を表示できるようにした。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋と表示する画像の紐付けを行う機能を作成する</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在はなし。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月31日～1月6日</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>作業</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>開始予定</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>終了予定</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>予定工数</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実績工数</t>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>削除処理</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>編集処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>指紋削除後にListViewの更新</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋と画像を紐付け出来る処理</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋とアプリを紐付け出来る処理</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  削除機能</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 指紋を削除した後にListViewにデータ名が空白でチェックボックスのみ</t>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 表示される問題があったため、その修正を行った。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7で指紋認証機器を認識できる方法について調査を行うこと。</t>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7で指紋認証機器を突然認識できなくなってしまったため、</t>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トツゼン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再び認識できるようにすること。</t>
+    <rPh sb="0" eb="1">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB接続を認識するアプリ"Nexus Media Importer"が正しく動作していないことが原因のようなので、</t>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゲンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのアプリを正しく動作させる方法について調査を行う。</t>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2924,7 +3335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2965,8 +3376,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2979,8 +3402,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2988,8 +3429,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2997,8 +3650,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3020,10 +3676,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3315,14 +4050,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" customWidth="1"/>
+    <col min="9" max="39" width="2.625" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -3370,7 +4113,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3394,18 +4137,18 @@
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>162</v>
+      <c r="B9" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>171</v>
+      <c r="B10" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>174</v>
+      <c r="B11" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3418,28 +4161,510 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>175</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="B17" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="6" t="s">
-        <v>173</v>
-      </c>
+    <row r="20" spans="1:39">
+      <c r="B20" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="14.25" thickBot="1">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23" spans="1:39" ht="14.25" thickBot="1">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="32"/>
+    </row>
+    <row r="24" spans="1:39" ht="14.25" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3</v>
+      </c>
+      <c r="L24" s="17">
+        <v>4</v>
+      </c>
+      <c r="M24" s="17">
+        <v>5</v>
+      </c>
+      <c r="N24" s="17">
+        <v>6</v>
+      </c>
+      <c r="O24" s="17">
+        <v>7</v>
+      </c>
+      <c r="P24" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>9</v>
+      </c>
+      <c r="R24" s="17">
+        <v>10</v>
+      </c>
+      <c r="S24" s="17">
+        <v>11</v>
+      </c>
+      <c r="T24" s="17">
+        <v>12</v>
+      </c>
+      <c r="U24" s="17">
+        <v>13</v>
+      </c>
+      <c r="V24" s="17">
+        <v>14</v>
+      </c>
+      <c r="W24" s="17">
+        <v>15</v>
+      </c>
+      <c r="X24" s="17">
+        <v>16</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>17</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>18</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>20</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>21</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>23</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>24</v>
+      </c>
+      <c r="AG24" s="17">
+        <v>25</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>26</v>
+      </c>
+      <c r="AI24" s="17">
+        <v>27</v>
+      </c>
+      <c r="AJ24" s="17">
+        <v>28</v>
+      </c>
+      <c r="AK24" s="17">
+        <v>29</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>30</v>
+      </c>
+      <c r="AM24" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="B25" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="19">
+        <v>41277</v>
+      </c>
+      <c r="E25" s="19">
+        <v>41277</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="29">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="13"/>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="B26" s="20"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="13"/>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="B27" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="19">
+        <v>41278</v>
+      </c>
+      <c r="E27" s="19">
+        <v>41286</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="13"/>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="B28" s="20"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="13"/>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="B29" s="20"/>
+      <c r="C29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="19">
+        <v>41287</v>
+      </c>
+      <c r="E29" s="19">
+        <v>41295</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="13"/>
+    </row>
+    <row r="30" spans="1:39" ht="14.25" thickBot="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3450,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3504,7 +4729,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3513,18 +4738,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3533,86 +4758,74 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
+      <c r="A20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3624,9 +4837,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3678,7 +4893,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3688,67 +4903,150 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3802,7 +5100,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3812,68 +5110,105 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3885,11 +5220,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3941,7 +5274,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3951,111 +5284,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
+      <c r="A15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4109,7 +5398,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4119,94 +5408,80 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4260,7 +5535,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4270,137 +5545,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="D15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4447,110 +5702,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>161</v>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>125</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>163</v>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="6" t="s">
-        <v>161</v>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>164</v>
+      <c r="C14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>165</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="6" t="s">
-        <v>167</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4597,105 +5853,145 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>153</v>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>159</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCellId="2" sqref="A1 A1 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4748,7 +6044,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4773,35 +6069,65 @@
     </row>
     <row r="9" spans="1:39">
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="D11" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
+    <row r="21" spans="1:4">
+      <c r="B21" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4811,11 +6137,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4868,7 +6196,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4878,101 +6206,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
+      <c r="C10" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:39">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4982,9 +6274,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5039,7 +6331,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5049,12 +6341,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5064,78 +6356,65 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
+      <c r="B13" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" s="6" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
+      <c r="C16" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+      <c r="C23" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5145,9 +6424,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5202,7 +6481,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5212,83 +6491,80 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
+      <c r="C9" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
+      <c r="C14" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5298,15 +6574,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -5353,104 +6630,61 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C10" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B16" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5460,17 +6694,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -5517,154 +6750,433 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
+      <c r="A2" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
+      <c r="B6" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B7" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
+      <c r="C11" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,30 +7,31 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="1月6日" sheetId="17" r:id="rId1"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId2"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId3"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId4"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId5"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId6"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId7"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId8"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId9"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId10"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId11"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId12"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId13"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId14"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId15"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId16"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId17"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId1"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId2"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId3"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId4"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId5"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId6"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId7"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId8"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId9"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId10"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId11"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId12"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId13"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId14"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId15"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId16"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId17"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -3069,26 +3070,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>開始予定</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>終了予定</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>予定工数</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
@@ -3112,9 +3093,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>10h</t>
-  </si>
-  <si>
     <t>削除処理</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -3151,47 +3129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指紋と画像を紐付け出来る処理</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指紋とアプリを紐付け出来る処理</t>
-    <rPh sb="0" eb="2">
-      <t>シモン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5h</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3327,6 +3264,625 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>予定開始日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>予定終了日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実績開始日</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績終了日</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証処理</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋とアプリを紐付け出来る処理の実装</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋と画像を紐付け出来る処理の実装</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資料作成</t>
+    <rPh sb="0" eb="2">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N1プレゼン用の資料作成</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表練習</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ(SourceAFIS)の調査</t>
+    <rPh sb="18" eb="20">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ(SourceAFIS)を用いた認証処理の実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月7日～1月13日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウトを使いやすく調整</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7が指紋認証機器を認識しない問題の対処方の調査</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Nexus7が指紋認証機器を認識しなくなったため、</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋削除後にListViewを更新し、削除結果を画面に反映させる</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋と画像を紐付け出来る処理を実装</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録：指紋管理データを読込んで表示する登録データ名を選択後、ギャラリーから画像選択。指紋認証成功時に該当画像を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ(SourceAFIS)を用いた認証処理の実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコートレビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録：指紋管理データを読込んで表示する登録データ名を選択後、アプリを選択。指紋認証成功時に該当アプリを起動する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証処理</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ(SourceAFIS)を使用する以外の認証処理の実装</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　編集処理の実装</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7が指紋認証機器を認識できるようにすること。</t>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.マイルストーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　編集処理：指紋認証成功時に表示する画像を選べるようにする処理の実装。</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　現在は下記の処理を実装した。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・指紋データから登録名を読込む。</t>
+    <rPh sb="2" eb="4">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・登録名タップするとギャラリーを表示して、画像を選択できる。</t>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　インターネットで解決法を調査・実行したが、(USBに接続しながら再起動等)</t>
+    <rPh sb="9" eb="12">
+      <t>カイケツホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　効果は無かった。</t>
+    <rPh sb="1" eb="3">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　まずは、アプリケーションの実装を進めていくこととする。</t>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3389,7 +3945,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3420,8 +3976,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3641,6 +4203,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3654,7 +4255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3753,6 +4354,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4050,7 +4708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:BX50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4058,14 +4716,1984 @@
   <cols>
     <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8" style="6" customWidth="1"/>
-    <col min="9" max="39" width="2.625" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="1.625" style="6"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="B17" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="B18" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="B19" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="B26" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="A28" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="31"/>
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="32"/>
+    </row>
+    <row r="31" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B31" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17">
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>3</v>
+      </c>
+      <c r="N31" s="17">
+        <v>4</v>
+      </c>
+      <c r="O31" s="17">
+        <v>5</v>
+      </c>
+      <c r="P31" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>7</v>
+      </c>
+      <c r="R31" s="17">
+        <v>8</v>
+      </c>
+      <c r="S31" s="17">
+        <v>9</v>
+      </c>
+      <c r="T31" s="17">
+        <v>10</v>
+      </c>
+      <c r="U31" s="17">
+        <v>11</v>
+      </c>
+      <c r="V31" s="17">
+        <v>12</v>
+      </c>
+      <c r="W31" s="17">
+        <v>13</v>
+      </c>
+      <c r="X31" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG31" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH31" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI31" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ31" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK31" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL31" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM31" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN31" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO31" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT31" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU31" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV31" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW31" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX31" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY31" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ31" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA31" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB31" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC31" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD31" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE31" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF31" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG31" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH31" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI31" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ31" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK31" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL31" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM31" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN31" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO31" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP31" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ31" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR31" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT31" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU31" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV31" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW31" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX31" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E32" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F32" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G32" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BU32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="20"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BU33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E34" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F34" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J34" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="20"/>
+      <c r="C35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E36" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E38" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="19">
+        <v>41691</v>
+      </c>
+      <c r="E40" s="19">
+        <v>41784</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="11"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E42" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E44" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+      <c r="BX44" s="37"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="12"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="45"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="46"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="46"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="39"/>
+      <c r="C47" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="44"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="44"/>
+      <c r="AW47" s="44"/>
+      <c r="AX47" s="44"/>
+      <c r="AY47" s="44"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="44"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="44"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="44"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="46"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="44"/>
+      <c r="BT47" s="44"/>
+      <c r="BU47" s="44"/>
+      <c r="BV47" s="44"/>
+      <c r="BW47" s="44"/>
+      <c r="BX47" s="46"/>
+    </row>
+    <row r="48" spans="2:76">
+      <c r="B48" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="44"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="44"/>
+      <c r="AU48" s="44"/>
+      <c r="AV48" s="44"/>
+      <c r="AW48" s="44"/>
+      <c r="AX48" s="44"/>
+      <c r="AY48" s="44"/>
+      <c r="AZ48" s="44"/>
+      <c r="BA48" s="44"/>
+      <c r="BB48" s="44"/>
+      <c r="BC48" s="45"/>
+      <c r="BD48" s="44"/>
+      <c r="BE48" s="44"/>
+      <c r="BF48" s="44"/>
+      <c r="BG48" s="44"/>
+      <c r="BH48" s="44"/>
+      <c r="BI48" s="44"/>
+      <c r="BJ48" s="44"/>
+      <c r="BK48" s="44"/>
+      <c r="BL48" s="44"/>
+      <c r="BM48" s="44"/>
+      <c r="BN48" s="44"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="44"/>
+      <c r="BQ48" s="46"/>
+      <c r="BR48" s="44"/>
+      <c r="BS48" s="44"/>
+      <c r="BT48" s="44"/>
+      <c r="BU48" s="44"/>
+      <c r="BV48" s="44"/>
+      <c r="BW48" s="44"/>
+      <c r="BX48" s="46"/>
+    </row>
+    <row r="49" spans="2:76">
+      <c r="B49" s="39"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="44"/>
+      <c r="AQ49" s="44"/>
+      <c r="AR49" s="44"/>
+      <c r="AS49" s="45"/>
+      <c r="AT49" s="44"/>
+      <c r="AU49" s="44"/>
+      <c r="AV49" s="44"/>
+      <c r="AW49" s="44"/>
+      <c r="AX49" s="44"/>
+      <c r="AY49" s="44"/>
+      <c r="AZ49" s="44"/>
+      <c r="BA49" s="44"/>
+      <c r="BB49" s="44"/>
+      <c r="BC49" s="45"/>
+      <c r="BD49" s="44"/>
+      <c r="BE49" s="44"/>
+      <c r="BF49" s="44"/>
+      <c r="BG49" s="44"/>
+      <c r="BH49" s="44"/>
+      <c r="BI49" s="44"/>
+      <c r="BJ49" s="44"/>
+      <c r="BK49" s="44"/>
+      <c r="BL49" s="44"/>
+      <c r="BM49" s="44"/>
+      <c r="BN49" s="44"/>
+      <c r="BO49" s="44"/>
+      <c r="BP49" s="44"/>
+      <c r="BQ49" s="46"/>
+      <c r="BR49" s="44"/>
+      <c r="BS49" s="44"/>
+      <c r="BT49" s="44"/>
+      <c r="BU49" s="44"/>
+      <c r="BV49" s="44"/>
+      <c r="BW49" s="44"/>
+      <c r="BX49" s="46"/>
+    </row>
+    <row r="50" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="50"/>
+      <c r="S50" s="50"/>
+      <c r="T50" s="50"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="50"/>
+      <c r="W50" s="50"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
+      <c r="AR50" s="50"/>
+      <c r="AS50" s="50"/>
+      <c r="AT50" s="50"/>
+      <c r="AU50" s="50"/>
+      <c r="AV50" s="50"/>
+      <c r="AW50" s="50"/>
+      <c r="AX50" s="50"/>
+      <c r="AY50" s="50"/>
+      <c r="AZ50" s="50"/>
+      <c r="BA50" s="50"/>
+      <c r="BB50" s="50"/>
+      <c r="BC50" s="50"/>
+      <c r="BD50" s="50"/>
+      <c r="BE50" s="50"/>
+      <c r="BF50" s="50"/>
+      <c r="BG50" s="50"/>
+      <c r="BH50" s="50"/>
+      <c r="BI50" s="50"/>
+      <c r="BJ50" s="50"/>
+      <c r="BK50" s="50"/>
+      <c r="BL50" s="50"/>
+      <c r="BM50" s="50"/>
+      <c r="BN50" s="50"/>
+      <c r="BO50" s="50"/>
+      <c r="BP50" s="50"/>
+      <c r="BQ50" s="51"/>
+      <c r="BR50" s="50"/>
+      <c r="BS50" s="50"/>
+      <c r="BT50" s="50"/>
+      <c r="BU50" s="50"/>
+      <c r="BV50" s="50"/>
+      <c r="BW50" s="50"/>
+      <c r="BX50" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -4113,7 +6741,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4123,548 +6751,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="B9" s="6" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>204</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" s="6" t="s">
-        <v>205</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="6" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="B17" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="6" t="s">
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="B20" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="14.25" thickBot="1">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-    </row>
-    <row r="23" spans="1:39" ht="14.25" thickBot="1">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="32"/>
-    </row>
-    <row r="24" spans="1:39" ht="14.25" thickBot="1">
-      <c r="B24" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="16">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2</v>
-      </c>
-      <c r="K24" s="17">
-        <v>3</v>
-      </c>
-      <c r="L24" s="17">
-        <v>4</v>
-      </c>
-      <c r="M24" s="17">
-        <v>5</v>
-      </c>
-      <c r="N24" s="17">
-        <v>6</v>
-      </c>
-      <c r="O24" s="17">
-        <v>7</v>
-      </c>
-      <c r="P24" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>9</v>
-      </c>
-      <c r="R24" s="17">
-        <v>10</v>
-      </c>
-      <c r="S24" s="17">
-        <v>11</v>
-      </c>
-      <c r="T24" s="17">
-        <v>12</v>
-      </c>
-      <c r="U24" s="17">
-        <v>13</v>
-      </c>
-      <c r="V24" s="17">
-        <v>14</v>
-      </c>
-      <c r="W24" s="17">
-        <v>15</v>
-      </c>
-      <c r="X24" s="17">
-        <v>16</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>17</v>
-      </c>
-      <c r="Z24" s="17">
-        <v>18</v>
-      </c>
-      <c r="AA24" s="17">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="17">
-        <v>20</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>21</v>
-      </c>
-      <c r="AD24" s="17">
-        <v>22</v>
-      </c>
-      <c r="AE24" s="17">
-        <v>23</v>
-      </c>
-      <c r="AF24" s="17">
-        <v>24</v>
-      </c>
-      <c r="AG24" s="17">
-        <v>25</v>
-      </c>
-      <c r="AH24" s="17">
-        <v>26</v>
-      </c>
-      <c r="AI24" s="17">
-        <v>27</v>
-      </c>
-      <c r="AJ24" s="17">
-        <v>28</v>
-      </c>
-      <c r="AK24" s="17">
-        <v>29</v>
-      </c>
-      <c r="AL24" s="17">
-        <v>30</v>
-      </c>
-      <c r="AM24" s="18">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="B25" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="19">
-        <v>41277</v>
-      </c>
-      <c r="E25" s="19">
-        <v>41277</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="29">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="13"/>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="B26" s="20"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="13"/>
-    </row>
-    <row r="27" spans="1:39">
-      <c r="B27" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="19">
-        <v>41278</v>
-      </c>
-      <c r="E27" s="19">
-        <v>41286</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="13"/>
-    </row>
-    <row r="28" spans="1:39">
-      <c r="B28" s="20"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="13"/>
-    </row>
-    <row r="29" spans="1:39">
-      <c r="B29" s="20"/>
-      <c r="C29" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="19">
-        <v>41287</v>
-      </c>
-      <c r="E29" s="19">
-        <v>41295</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="13"/>
-    </row>
-    <row r="30" spans="1:39" ht="14.25" thickBot="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="15"/>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4673,7 +6837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -4835,7 +6999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM36"/>
   <sheetViews>
@@ -5044,7 +7208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM29"/>
   <sheetViews>
@@ -5218,7 +7382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM17"/>
   <sheetViews>
@@ -5342,7 +7506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM20"/>
   <sheetViews>
@@ -5479,7 +7643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM26"/>
   <sheetViews>
@@ -5647,7 +7811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -5798,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM31"/>
   <sheetViews>
@@ -5987,9 +8151,1743 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="B17" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="A19" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="B20" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+    </row>
+    <row r="23" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="31"/>
+      <c r="BQ23" s="32"/>
+      <c r="BR23" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS23" s="31"/>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BX23" s="32"/>
+    </row>
+    <row r="24" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17">
+        <v>2</v>
+      </c>
+      <c r="M24" s="17">
+        <v>3</v>
+      </c>
+      <c r="N24" s="17">
+        <v>4</v>
+      </c>
+      <c r="O24" s="17">
+        <v>5</v>
+      </c>
+      <c r="P24" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>7</v>
+      </c>
+      <c r="R24" s="17">
+        <v>8</v>
+      </c>
+      <c r="S24" s="17">
+        <v>9</v>
+      </c>
+      <c r="T24" s="17">
+        <v>10</v>
+      </c>
+      <c r="U24" s="17">
+        <v>11</v>
+      </c>
+      <c r="V24" s="17">
+        <v>12</v>
+      </c>
+      <c r="W24" s="17">
+        <v>13</v>
+      </c>
+      <c r="X24" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG24" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI24" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ24" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK24" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM24" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN24" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO24" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS24" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT24" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV24" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW24" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX24" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY24" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ24" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA24" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB24" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC24" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD24" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE24" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF24" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG24" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH24" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI24" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ24" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK24" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL24" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM24" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN24" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO24" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP24" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ24" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR24" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT24" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU24" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV24" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW24" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX24" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76">
+      <c r="B25" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E25" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F25" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G25" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="29">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="13"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
+      <c r="BW25" s="12"/>
+      <c r="BX25" s="13"/>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="B26" s="20"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
+      <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
+      <c r="BW26" s="12"/>
+      <c r="BX26" s="13"/>
+    </row>
+    <row r="27" spans="1:76">
+      <c r="B27" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E27" s="19">
+        <v>41659</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12"/>
+      <c r="BP27" s="12"/>
+      <c r="BQ27" s="13"/>
+      <c r="BR27" s="12"/>
+      <c r="BS27" s="12"/>
+      <c r="BT27" s="12"/>
+      <c r="BV27" s="12"/>
+      <c r="BW27" s="12"/>
+      <c r="BX27" s="13"/>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="B28" s="20"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="13"/>
+    </row>
+    <row r="29" spans="1:76">
+      <c r="B29" s="20"/>
+      <c r="C29" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="19">
+        <v>41660</v>
+      </c>
+      <c r="E29" s="19">
+        <v>41668</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="13"/>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="13"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="B31" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="19">
+        <v>41669</v>
+      </c>
+      <c r="E31" s="19">
+        <v>41672</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="36"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="13"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="19">
+        <v>41673</v>
+      </c>
+      <c r="E33" s="19">
+        <v>41691</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E35" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E37" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="11"/>
+      <c r="BP37" s="11"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E39" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="11"/>
+      <c r="BT39" s="11"/>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="11"/>
+      <c r="BW39" s="11"/>
+      <c r="BX39" s="37"/>
+    </row>
+    <row r="40" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="14"/>
+      <c r="AX40" s="14"/>
+      <c r="AY40" s="14"/>
+      <c r="AZ40" s="14"/>
+      <c r="BA40" s="14"/>
+      <c r="BB40" s="14"/>
+      <c r="BC40" s="14"/>
+      <c r="BD40" s="14"/>
+      <c r="BE40" s="14"/>
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="14"/>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="14"/>
+      <c r="BJ40" s="14"/>
+      <c r="BK40" s="14"/>
+      <c r="BL40" s="14"/>
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="14"/>
+      <c r="BP40" s="14"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="14"/>
+      <c r="BS40" s="14"/>
+      <c r="BT40" s="14"/>
+      <c r="BU40" s="14"/>
+      <c r="BV40" s="14"/>
+      <c r="BW40" s="14"/>
+      <c r="BX40" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCellId="2" sqref="A1 A1 A1"/>
     </sheetView>
   </sheetViews>
@@ -6137,7 +10035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -6274,7 +10172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -6424,7 +10322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -6574,7 +10472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM16"/>
   <sheetViews>
@@ -6694,7 +10592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM28"/>
   <sheetViews>
@@ -6865,7 +10763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
@@ -7026,157 +10924,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,31 +7,32 @@
     <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="1月13日" sheetId="18" r:id="rId1"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId2"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId3"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId4"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId5"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId6"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId7"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId8"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId9"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId10"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId11"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId12"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId13"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId14"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId15"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId16"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId17"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId18"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId1"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId2"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId3"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId4"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId5"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId6"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId7"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId8"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId9"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId10"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId11"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId12"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId13"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId14"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId15"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId16"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId17"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId18"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="265">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -3884,6 +3885,184 @@
     <rPh sb="17" eb="18">
       <t>スス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月14日～1月20日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 指紋編集機能：指紋認証成功時に表示する画像を選べるようにする処理の実装。</t>
+    <rPh sb="1" eb="3">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　認証処理の実装</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 編集処理の実装を完了した。(動作はエミュレータでデバッグ実行により確認)</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7が指紋認証機器を認識できるようにすること。</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・指紋編集機能が実機で動作するかテストを行うこと。</t>
+    <rPh sb="1" eb="3">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・選択した登録名と選択した画像を保存。(保存形式：テキストを用いたデータ管理)</t>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・指紋認証成功時に編集処理によって選択した画像を表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4708,9 +4887,3527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="B18" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="B21" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="B22" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="A24" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+    </row>
+    <row r="26" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+      <c r="BP26" s="31"/>
+      <c r="BQ26" s="32"/>
+      <c r="BR26" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="31"/>
+      <c r="BX26" s="32"/>
+    </row>
+    <row r="27" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B27" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="16">
+        <v>1</v>
+      </c>
+      <c r="L27" s="17">
+        <v>2</v>
+      </c>
+      <c r="M27" s="17">
+        <v>3</v>
+      </c>
+      <c r="N27" s="17">
+        <v>4</v>
+      </c>
+      <c r="O27" s="17">
+        <v>5</v>
+      </c>
+      <c r="P27" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>7</v>
+      </c>
+      <c r="R27" s="17">
+        <v>8</v>
+      </c>
+      <c r="S27" s="17">
+        <v>9</v>
+      </c>
+      <c r="T27" s="17">
+        <v>10</v>
+      </c>
+      <c r="U27" s="17">
+        <v>11</v>
+      </c>
+      <c r="V27" s="17">
+        <v>12</v>
+      </c>
+      <c r="W27" s="17">
+        <v>13</v>
+      </c>
+      <c r="X27" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH27" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI27" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ27" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK27" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL27" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM27" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN27" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO27" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP27" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS27" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT27" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU27" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV27" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW27" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX27" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY27" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ27" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA27" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB27" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC27" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD27" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE27" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF27" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG27" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH27" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI27" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ27" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK27" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL27" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM27" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN27" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO27" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP27" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ27" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR27" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS27" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT27" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV27" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW27" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX27" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="B28" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E28" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F28" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G28" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J28" s="29">
+        <v>1</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="13"/>
+    </row>
+    <row r="29" spans="1:76">
+      <c r="B29" s="20"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="13"/>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="B30" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E30" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F30" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G30" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="13"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="B31" s="20"/>
+      <c r="C31" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="13"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E32" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F32" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="28"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E34" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="19">
+        <v>41691</v>
+      </c>
+      <c r="E36" s="19">
+        <v>41784</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E38" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="11"/>
+      <c r="BN38" s="11"/>
+      <c r="BO38" s="11"/>
+      <c r="BP38" s="11"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E40" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="38"/>
+      <c r="BS40" s="11"/>
+      <c r="BT40" s="11"/>
+      <c r="BU40" s="11"/>
+      <c r="BV40" s="11"/>
+      <c r="BW40" s="11"/>
+      <c r="BX40" s="37"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="46"/>
+      <c r="AP42" s="44"/>
+      <c r="AQ42" s="44"/>
+      <c r="AR42" s="44"/>
+      <c r="AS42" s="45"/>
+      <c r="AT42" s="44"/>
+      <c r="AU42" s="44"/>
+      <c r="AV42" s="44"/>
+      <c r="AW42" s="44"/>
+      <c r="AX42" s="44"/>
+      <c r="AY42" s="44"/>
+      <c r="AZ42" s="44"/>
+      <c r="BA42" s="44"/>
+      <c r="BB42" s="44"/>
+      <c r="BC42" s="45"/>
+      <c r="BD42" s="44"/>
+      <c r="BE42" s="44"/>
+      <c r="BF42" s="44"/>
+      <c r="BG42" s="44"/>
+      <c r="BH42" s="44"/>
+      <c r="BI42" s="44"/>
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44"/>
+      <c r="BL42" s="44"/>
+      <c r="BM42" s="44"/>
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44"/>
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="46"/>
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44"/>
+      <c r="BT42" s="44"/>
+      <c r="BU42" s="44"/>
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44"/>
+      <c r="BX42" s="46"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="39"/>
+      <c r="C43" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="44"/>
+      <c r="AQ43" s="44"/>
+      <c r="AR43" s="44"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="44"/>
+      <c r="AU43" s="44"/>
+      <c r="AV43" s="44"/>
+      <c r="AW43" s="44"/>
+      <c r="AX43" s="44"/>
+      <c r="AY43" s="44"/>
+      <c r="AZ43" s="44"/>
+      <c r="BA43" s="44"/>
+      <c r="BB43" s="44"/>
+      <c r="BC43" s="45"/>
+      <c r="BD43" s="44"/>
+      <c r="BE43" s="44"/>
+      <c r="BF43" s="44"/>
+      <c r="BG43" s="44"/>
+      <c r="BH43" s="44"/>
+      <c r="BI43" s="44"/>
+      <c r="BJ43" s="44"/>
+      <c r="BK43" s="44"/>
+      <c r="BL43" s="44"/>
+      <c r="BM43" s="44"/>
+      <c r="BN43" s="44"/>
+      <c r="BO43" s="44"/>
+      <c r="BP43" s="44"/>
+      <c r="BQ43" s="46"/>
+      <c r="BR43" s="44"/>
+      <c r="BS43" s="44"/>
+      <c r="BT43" s="44"/>
+      <c r="BU43" s="44"/>
+      <c r="BV43" s="44"/>
+      <c r="BW43" s="44"/>
+      <c r="BX43" s="46"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="44"/>
+      <c r="AQ44" s="44"/>
+      <c r="AR44" s="44"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="44"/>
+      <c r="AU44" s="44"/>
+      <c r="AV44" s="44"/>
+      <c r="AW44" s="44"/>
+      <c r="AX44" s="44"/>
+      <c r="AY44" s="44"/>
+      <c r="AZ44" s="44"/>
+      <c r="BA44" s="44"/>
+      <c r="BB44" s="44"/>
+      <c r="BC44" s="45"/>
+      <c r="BD44" s="44"/>
+      <c r="BE44" s="44"/>
+      <c r="BF44" s="44"/>
+      <c r="BG44" s="44"/>
+      <c r="BH44" s="44"/>
+      <c r="BI44" s="44"/>
+      <c r="BJ44" s="44"/>
+      <c r="BK44" s="44"/>
+      <c r="BL44" s="44"/>
+      <c r="BM44" s="44"/>
+      <c r="BN44" s="44"/>
+      <c r="BO44" s="44"/>
+      <c r="BP44" s="44"/>
+      <c r="BQ44" s="46"/>
+      <c r="BR44" s="44"/>
+      <c r="BS44" s="44"/>
+      <c r="BT44" s="44"/>
+      <c r="BU44" s="44"/>
+      <c r="BV44" s="44"/>
+      <c r="BW44" s="44"/>
+      <c r="BX44" s="46"/>
+    </row>
+    <row r="45" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="50"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+      <c r="AH45" s="50"/>
+      <c r="AI45" s="50"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="50"/>
+      <c r="AL45" s="50"/>
+      <c r="AM45" s="50"/>
+      <c r="AN45" s="50"/>
+      <c r="AO45" s="51"/>
+      <c r="AP45" s="50"/>
+      <c r="AQ45" s="50"/>
+      <c r="AR45" s="50"/>
+      <c r="AS45" s="50"/>
+      <c r="AT45" s="50"/>
+      <c r="AU45" s="50"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
+      <c r="BB45" s="50"/>
+      <c r="BC45" s="50"/>
+      <c r="BD45" s="50"/>
+      <c r="BE45" s="50"/>
+      <c r="BF45" s="50"/>
+      <c r="BG45" s="50"/>
+      <c r="BH45" s="50"/>
+      <c r="BI45" s="50"/>
+      <c r="BJ45" s="50"/>
+      <c r="BK45" s="50"/>
+      <c r="BL45" s="50"/>
+      <c r="BM45" s="50"/>
+      <c r="BN45" s="50"/>
+      <c r="BO45" s="50"/>
+      <c r="BP45" s="50"/>
+      <c r="BQ45" s="51"/>
+      <c r="BR45" s="50"/>
+      <c r="BS45" s="50"/>
+      <c r="BT45" s="50"/>
+      <c r="BU45" s="50"/>
+      <c r="BV45" s="50"/>
+      <c r="BW45" s="50"/>
+      <c r="BX45" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6684,1472 +10381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -9883,7 +12115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -10035,7 +12267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -10172,7 +12404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -10322,7 +12554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -10472,7 +12704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM16"/>
   <sheetViews>
@@ -10592,7 +12824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM28"/>
   <sheetViews>
@@ -10761,167 +12993,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -4,35 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1260" windowWidth="15075" windowHeight="9165"/>
+    <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="1月20日" sheetId="19" r:id="rId1"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId2"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId3"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId4"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId5"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId6"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId7"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId8"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId9"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId10"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId11"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId12"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId13"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId14"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId15"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId16"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId17"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId18"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId19"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId1"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId2"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId3"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId4"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId5"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId6"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId7"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId8"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId9"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId10"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId11"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId12"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId13"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId14"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId15"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId16"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId17"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId18"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId19"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="289">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -4063,6 +4064,336 @@
   </si>
   <si>
     <t>16h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月21日～1月27日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実機を用いたテストの実施</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ライブラリ(SourceAFIS)の調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus７が指紋認証機器で動作しない理由の調査</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7と指紋認証機器を接続するケーブルの調査・購入</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　指紋認証ライブラリ：SourceAFISについてドキュメントを読んだり、</t>
+    <rPh sb="1" eb="3">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プログラミングを行って動作の調査を行った。</t>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　SourceAFISがJavaへ提供する機能はC#へ提供する機能の半分ほどであり、</t>
+    <rPh sb="17" eb="19">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Javaでは指紋画像のテンプレートは抽出できず、</t>
+    <rPh sb="7" eb="9">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　C#で抽出するかISO標準テンプレートという形式にする必要があるらしいことがわかった。</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　(参考：公式質問フォーラムhttp://sourceforge.net/p/sourceafis/discussion/1051112/thread/59962969/より)</t>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　樋原さんに協力して頂き、調査を行ったところ</t>
+    <rPh sb="1" eb="3">
+      <t>ヒバラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イタダキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　USBハブが断線などによる接触不良を起こしている可能性が出た。</t>
+    <rPh sb="7" eb="9">
+      <t>ダンセン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッショク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　接続出来たり、出来なかったりと不安定な動作であるので、</t>
+    <rPh sb="1" eb="3">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　念のため他のケーブルを購入することに決めた。</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Nexus7と指紋認証機器を接続するケーブルとして</t>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　USBハブではなく直接接続できるケーブルを購入することにした。</t>
+    <rPh sb="10" eb="12">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Nesus7でも動作するという書き込みがあり、かつ安価であったため、</t>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　OTGケーブル タブレットPC用 ミニ micro というケーブルを購入することとした。</t>
+    <rPh sb="35" eb="37">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　山内さんが考案された指紋マッチング方法について実装を試みる。</t>
+    <rPh sb="4" eb="6">
+      <t>ヤマウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4887,9 +5218,3722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="B7" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:76">
+      <c r="A33" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76">
+      <c r="B34" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:76">
+      <c r="B35" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:76">
+      <c r="A36" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:76">
+      <c r="A38" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="31"/>
+      <c r="BL40" s="31"/>
+      <c r="BM40" s="31"/>
+      <c r="BN40" s="31"/>
+      <c r="BO40" s="31"/>
+      <c r="BP40" s="31"/>
+      <c r="BQ40" s="32"/>
+      <c r="BR40" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS40" s="31"/>
+      <c r="BT40" s="31"/>
+      <c r="BU40" s="31"/>
+      <c r="BV40" s="31"/>
+      <c r="BW40" s="31"/>
+      <c r="BX40" s="32"/>
+    </row>
+    <row r="41" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B41" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>2</v>
+      </c>
+      <c r="M41" s="17">
+        <v>3</v>
+      </c>
+      <c r="N41" s="17">
+        <v>4</v>
+      </c>
+      <c r="O41" s="17">
+        <v>5</v>
+      </c>
+      <c r="P41" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>7</v>
+      </c>
+      <c r="R41" s="17">
+        <v>8</v>
+      </c>
+      <c r="S41" s="17">
+        <v>9</v>
+      </c>
+      <c r="T41" s="17">
+        <v>10</v>
+      </c>
+      <c r="U41" s="17">
+        <v>11</v>
+      </c>
+      <c r="V41" s="17">
+        <v>12</v>
+      </c>
+      <c r="W41" s="17">
+        <v>13</v>
+      </c>
+      <c r="X41" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y41" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD41" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE41" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF41" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG41" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH41" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI41" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ41" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK41" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL41" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM41" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN41" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO41" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP41" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS41" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT41" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU41" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV41" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW41" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX41" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY41" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ41" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA41" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB41" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC41" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD41" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE41" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF41" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG41" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH41" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI41" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ41" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK41" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL41" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM41" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN41" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO41" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP41" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ41" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR41" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS41" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT41" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU41" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV41" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW41" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX41" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:76">
+      <c r="B42" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E42" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F42" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G42" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="29">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BU42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="1:76">
+      <c r="B43" s="20"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BU43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="1:76">
+      <c r="B44" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E44" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F44" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G44" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" s="29">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="13"/>
+    </row>
+    <row r="45" spans="1:76">
+      <c r="B45" s="20"/>
+      <c r="C45" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="12"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="1:76">
+      <c r="B46" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E46" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F46" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G46" s="19">
+        <v>41666</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="J46" s="29">
+        <v>1</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BC46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="12"/>
+      <c r="BS46" s="12"/>
+      <c r="BT46" s="12"/>
+      <c r="BV46" s="12"/>
+      <c r="BW46" s="12"/>
+      <c r="BX46" s="13"/>
+    </row>
+    <row r="47" spans="1:76">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="28"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="12"/>
+      <c r="BN47" s="12"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="13"/>
+      <c r="BR47" s="12"/>
+      <c r="BS47" s="12"/>
+      <c r="BT47" s="12"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="13"/>
+    </row>
+    <row r="48" spans="1:76">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E48" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="13"/>
+      <c r="BR48" s="12"/>
+      <c r="BS48" s="12"/>
+      <c r="BT48" s="12"/>
+      <c r="BV48" s="12"/>
+      <c r="BW48" s="12"/>
+      <c r="BX48" s="13"/>
+    </row>
+    <row r="49" spans="2:76">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="12"/>
+      <c r="AY49" s="12"/>
+      <c r="AZ49" s="12"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="12"/>
+      <c r="BC49" s="12"/>
+      <c r="BD49" s="12"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="12"/>
+      <c r="BG49" s="12"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="12"/>
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="12"/>
+      <c r="BO49" s="12"/>
+      <c r="BP49" s="12"/>
+      <c r="BQ49" s="13"/>
+      <c r="BR49" s="12"/>
+      <c r="BS49" s="12"/>
+      <c r="BT49" s="12"/>
+      <c r="BV49" s="12"/>
+      <c r="BW49" s="12"/>
+      <c r="BX49" s="13"/>
+    </row>
+    <row r="50" spans="2:76">
+      <c r="B50" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E50" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="11"/>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="11"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="13"/>
+      <c r="BR50" s="12"/>
+      <c r="BS50" s="12"/>
+      <c r="BT50" s="12"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="13"/>
+    </row>
+    <row r="51" spans="2:76">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="12"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12"/>
+      <c r="AZ51" s="12"/>
+      <c r="BA51" s="12"/>
+      <c r="BB51" s="12"/>
+      <c r="BC51" s="12"/>
+      <c r="BD51" s="12"/>
+      <c r="BE51" s="12"/>
+      <c r="BF51" s="12"/>
+      <c r="BG51" s="12"/>
+      <c r="BH51" s="12"/>
+      <c r="BI51" s="12"/>
+      <c r="BJ51" s="12"/>
+      <c r="BK51" s="12"/>
+      <c r="BL51" s="12"/>
+      <c r="BM51" s="12"/>
+      <c r="BN51" s="12"/>
+      <c r="BO51" s="12"/>
+      <c r="BP51" s="12"/>
+      <c r="BQ51" s="13"/>
+      <c r="BR51" s="12"/>
+      <c r="BS51" s="12"/>
+      <c r="BT51" s="12"/>
+      <c r="BV51" s="12"/>
+      <c r="BW51" s="12"/>
+      <c r="BX51" s="13"/>
+    </row>
+    <row r="52" spans="2:76">
+      <c r="B52" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E52" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I52" s="27"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BK52" s="11"/>
+      <c r="BL52" s="11"/>
+      <c r="BM52" s="11"/>
+      <c r="BN52" s="11"/>
+      <c r="BO52" s="11"/>
+      <c r="BP52" s="12"/>
+      <c r="BQ52" s="13"/>
+      <c r="BR52" s="12"/>
+      <c r="BS52" s="12"/>
+      <c r="BT52" s="12"/>
+      <c r="BV52" s="12"/>
+      <c r="BW52" s="12"/>
+      <c r="BX52" s="13"/>
+    </row>
+    <row r="53" spans="2:76">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="12"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BD53" s="12"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="12"/>
+      <c r="BG53" s="12"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="12"/>
+      <c r="BK53" s="12"/>
+      <c r="BL53" s="12"/>
+      <c r="BM53" s="12"/>
+      <c r="BN53" s="12"/>
+      <c r="BO53" s="12"/>
+      <c r="BP53" s="12"/>
+      <c r="BQ53" s="13"/>
+      <c r="BR53" s="12"/>
+      <c r="BS53" s="12"/>
+      <c r="BT53" s="12"/>
+      <c r="BV53" s="12"/>
+      <c r="BW53" s="12"/>
+      <c r="BX53" s="13"/>
+    </row>
+    <row r="54" spans="2:76">
+      <c r="B54" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E54" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="13"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="12"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="11"/>
+      <c r="BN54" s="11"/>
+      <c r="BO54" s="11"/>
+      <c r="BP54" s="11"/>
+      <c r="BQ54" s="37"/>
+      <c r="BR54" s="12"/>
+      <c r="BS54" s="12"/>
+      <c r="BT54" s="12"/>
+      <c r="BV54" s="12"/>
+      <c r="BW54" s="12"/>
+      <c r="BX54" s="13"/>
+    </row>
+    <row r="55" spans="2:76">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="13"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="12"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
+      <c r="BQ55" s="13"/>
+      <c r="BR55" s="12"/>
+      <c r="BS55" s="12"/>
+      <c r="BT55" s="12"/>
+      <c r="BV55" s="12"/>
+      <c r="BW55" s="12"/>
+      <c r="BX55" s="13"/>
+    </row>
+    <row r="56" spans="2:76">
+      <c r="B56" s="33"/>
+      <c r="C56" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E56" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="27"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="13"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12"/>
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="12"/>
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="12"/>
+      <c r="BL56" s="12"/>
+      <c r="BM56" s="12"/>
+      <c r="BN56" s="12"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="13"/>
+      <c r="BR56" s="38"/>
+      <c r="BS56" s="11"/>
+      <c r="BT56" s="11"/>
+      <c r="BU56" s="11"/>
+      <c r="BV56" s="11"/>
+      <c r="BW56" s="11"/>
+      <c r="BX56" s="37"/>
+    </row>
+    <row r="57" spans="2:76">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="13"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="13"/>
+      <c r="BR57" s="12"/>
+      <c r="BS57" s="12"/>
+      <c r="BT57" s="12"/>
+      <c r="BV57" s="12"/>
+      <c r="BW57" s="12"/>
+      <c r="BX57" s="13"/>
+    </row>
+    <row r="58" spans="2:76">
+      <c r="B58" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="44"/>
+      <c r="AQ58" s="44"/>
+      <c r="AR58" s="44"/>
+      <c r="AS58" s="45"/>
+      <c r="AT58" s="44"/>
+      <c r="AU58" s="44"/>
+      <c r="AV58" s="44"/>
+      <c r="AW58" s="44"/>
+      <c r="AX58" s="44"/>
+      <c r="AY58" s="44"/>
+      <c r="AZ58" s="44"/>
+      <c r="BA58" s="44"/>
+      <c r="BB58" s="44"/>
+      <c r="BC58" s="45"/>
+      <c r="BD58" s="44"/>
+      <c r="BE58" s="44"/>
+      <c r="BF58" s="44"/>
+      <c r="BG58" s="44"/>
+      <c r="BH58" s="44"/>
+      <c r="BI58" s="44"/>
+      <c r="BJ58" s="44"/>
+      <c r="BK58" s="44"/>
+      <c r="BL58" s="44"/>
+      <c r="BM58" s="44"/>
+      <c r="BN58" s="44"/>
+      <c r="BO58" s="44"/>
+      <c r="BP58" s="44"/>
+      <c r="BQ58" s="46"/>
+      <c r="BR58" s="44"/>
+      <c r="BS58" s="44"/>
+      <c r="BT58" s="44"/>
+      <c r="BU58" s="44"/>
+      <c r="BV58" s="44"/>
+      <c r="BW58" s="44"/>
+      <c r="BX58" s="46"/>
+    </row>
+    <row r="59" spans="2:76">
+      <c r="B59" s="39"/>
+      <c r="C59" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="44"/>
+      <c r="AL59" s="44"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="44"/>
+      <c r="AQ59" s="44"/>
+      <c r="AR59" s="44"/>
+      <c r="AS59" s="45"/>
+      <c r="AT59" s="44"/>
+      <c r="AU59" s="44"/>
+      <c r="AV59" s="44"/>
+      <c r="AW59" s="44"/>
+      <c r="AX59" s="44"/>
+      <c r="AY59" s="44"/>
+      <c r="AZ59" s="44"/>
+      <c r="BA59" s="44"/>
+      <c r="BB59" s="44"/>
+      <c r="BC59" s="45"/>
+      <c r="BD59" s="44"/>
+      <c r="BE59" s="44"/>
+      <c r="BF59" s="44"/>
+      <c r="BG59" s="44"/>
+      <c r="BH59" s="44"/>
+      <c r="BI59" s="44"/>
+      <c r="BJ59" s="44"/>
+      <c r="BK59" s="44"/>
+      <c r="BL59" s="44"/>
+      <c r="BM59" s="44"/>
+      <c r="BN59" s="44"/>
+      <c r="BO59" s="44"/>
+      <c r="BP59" s="44"/>
+      <c r="BQ59" s="46"/>
+      <c r="BR59" s="44"/>
+      <c r="BS59" s="44"/>
+      <c r="BT59" s="44"/>
+      <c r="BU59" s="44"/>
+      <c r="BV59" s="44"/>
+      <c r="BW59" s="44"/>
+      <c r="BX59" s="46"/>
+    </row>
+    <row r="60" spans="2:76">
+      <c r="B60" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="44"/>
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="44"/>
+      <c r="AQ60" s="44"/>
+      <c r="AR60" s="44"/>
+      <c r="AS60" s="45"/>
+      <c r="AT60" s="44"/>
+      <c r="AU60" s="44"/>
+      <c r="AV60" s="44"/>
+      <c r="AW60" s="44"/>
+      <c r="AX60" s="44"/>
+      <c r="AY60" s="44"/>
+      <c r="AZ60" s="44"/>
+      <c r="BA60" s="44"/>
+      <c r="BB60" s="44"/>
+      <c r="BC60" s="45"/>
+      <c r="BD60" s="44"/>
+      <c r="BE60" s="44"/>
+      <c r="BF60" s="44"/>
+      <c r="BG60" s="44"/>
+      <c r="BH60" s="44"/>
+      <c r="BI60" s="44"/>
+      <c r="BJ60" s="44"/>
+      <c r="BK60" s="44"/>
+      <c r="BL60" s="44"/>
+      <c r="BM60" s="44"/>
+      <c r="BN60" s="44"/>
+      <c r="BO60" s="44"/>
+      <c r="BP60" s="44"/>
+      <c r="BQ60" s="46"/>
+      <c r="BR60" s="44"/>
+      <c r="BS60" s="44"/>
+      <c r="BT60" s="44"/>
+      <c r="BU60" s="44"/>
+      <c r="BV60" s="44"/>
+      <c r="BW60" s="44"/>
+      <c r="BX60" s="46"/>
+    </row>
+    <row r="61" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="50"/>
+      <c r="W61" s="50"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="50"/>
+      <c r="AA61" s="50"/>
+      <c r="AB61" s="50"/>
+      <c r="AC61" s="50"/>
+      <c r="AD61" s="50"/>
+      <c r="AE61" s="50"/>
+      <c r="AF61" s="50"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
+      <c r="AI61" s="50"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="50"/>
+      <c r="AL61" s="50"/>
+      <c r="AM61" s="50"/>
+      <c r="AN61" s="50"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="50"/>
+      <c r="AQ61" s="50"/>
+      <c r="AR61" s="50"/>
+      <c r="AS61" s="50"/>
+      <c r="AT61" s="50"/>
+      <c r="AU61" s="50"/>
+      <c r="AV61" s="50"/>
+      <c r="AW61" s="50"/>
+      <c r="AX61" s="50"/>
+      <c r="AY61" s="50"/>
+      <c r="AZ61" s="50"/>
+      <c r="BA61" s="50"/>
+      <c r="BB61" s="50"/>
+      <c r="BC61" s="50"/>
+      <c r="BD61" s="50"/>
+      <c r="BE61" s="50"/>
+      <c r="BF61" s="50"/>
+      <c r="BG61" s="50"/>
+      <c r="BH61" s="50"/>
+      <c r="BI61" s="50"/>
+      <c r="BJ61" s="50"/>
+      <c r="BK61" s="50"/>
+      <c r="BL61" s="50"/>
+      <c r="BM61" s="50"/>
+      <c r="BN61" s="50"/>
+      <c r="BO61" s="50"/>
+      <c r="BP61" s="50"/>
+      <c r="BQ61" s="51"/>
+      <c r="BR61" s="50"/>
+      <c r="BS61" s="50"/>
+      <c r="BT61" s="50"/>
+      <c r="BU61" s="50"/>
+      <c r="BV61" s="50"/>
+      <c r="BW61" s="50"/>
+      <c r="BX61" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6773,16 +10817,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -6829,1446 +10872,6 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -8401,7 +11004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -10381,7 +12984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -12115,7 +14718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -12267,7 +14870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -12404,7 +15007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -12554,7 +15157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -12704,7 +15307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM16"/>
   <sheetViews>
@@ -12822,175 +15425,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,33 +7,34 @@
     <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="1月27日" sheetId="20" r:id="rId1"/>
-    <sheet name="1月20日" sheetId="19" r:id="rId2"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId3"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId4"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId5"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId6"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId7"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId8"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId9"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId10"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId11"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId12"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId13"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId14"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId15"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId16"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId17"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId18"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId19"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId20"/>
+    <sheet name="2月3日" sheetId="21" r:id="rId1"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId2"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId3"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId4"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId5"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId6"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId7"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId8"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId9"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId10"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId11"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId12"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId13"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId14"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId15"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId16"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId17"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId18"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId19"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId20"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="306">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -4394,6 +4395,230 @@
   </si>
   <si>
     <t>14h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月28日～2月3日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SourceAFISを用いた指紋認証機能の実装方法について調査を行うこと。</t>
+    <rPh sb="12" eb="13">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SourceAFISを用いた指紋認証機能の実装方法の調査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレゼン資料の作成</t>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 土曜研修会時のプレゼン資料を基にN1の発表用のプレゼン資料の作成を行った。</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ハッピョウヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> プレゼン研修で学んだことを生かして、</t>
+    <rPh sb="5" eb="7">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 言いたいことをなるべく先にもっていったり、</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　文字を出来るだけ少なくしたり、</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 資料の最後にまとめを作成する様にした。</t>
+    <rPh sb="1" eb="3">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ライブラリの実装中にエラーが出たため、</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> その原因を調査したところ、</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourceAFIS用のテンプレート形式の画像に変換できていないことがわかった。</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourceAFISではJAVAだけで画像の変換を行うAPIがない様であるため、</t>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SourceAFISに変換できる様な方法について調査を行った。</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 現段階では有効な方法についてはまだわかっていない。</t>
+    <rPh sb="1" eb="4">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5218,9 +5443,3667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="B17" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="B18" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="B19" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="B20" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="B21" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="B22" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="B25" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
+      <c r="B26" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
+      <c r="A28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
+      <c r="B29" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
+      <c r="A31" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="14.25" thickBot="1">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+    </row>
+    <row r="33" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+      <c r="BM33" s="31"/>
+      <c r="BN33" s="31"/>
+      <c r="BO33" s="31"/>
+      <c r="BP33" s="31"/>
+      <c r="BQ33" s="32"/>
+      <c r="BR33" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS33" s="31"/>
+      <c r="BT33" s="31"/>
+      <c r="BU33" s="31"/>
+      <c r="BV33" s="31"/>
+      <c r="BW33" s="31"/>
+      <c r="BX33" s="32"/>
+    </row>
+    <row r="34" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B34" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1</v>
+      </c>
+      <c r="L34" s="17">
+        <v>2</v>
+      </c>
+      <c r="M34" s="17">
+        <v>3</v>
+      </c>
+      <c r="N34" s="17">
+        <v>4</v>
+      </c>
+      <c r="O34" s="17">
+        <v>5</v>
+      </c>
+      <c r="P34" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>7</v>
+      </c>
+      <c r="R34" s="17">
+        <v>8</v>
+      </c>
+      <c r="S34" s="17">
+        <v>9</v>
+      </c>
+      <c r="T34" s="17">
+        <v>10</v>
+      </c>
+      <c r="U34" s="17">
+        <v>11</v>
+      </c>
+      <c r="V34" s="17">
+        <v>12</v>
+      </c>
+      <c r="W34" s="17">
+        <v>13</v>
+      </c>
+      <c r="X34" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC34" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD34" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF34" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG34" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH34" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI34" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ34" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK34" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL34" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM34" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN34" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO34" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP34" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS34" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT34" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU34" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV34" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW34" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX34" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY34" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ34" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA34" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB34" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC34" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD34" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE34" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF34" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG34" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH34" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI34" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ34" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK34" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL34" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM34" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN34" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO34" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP34" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ34" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR34" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS34" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT34" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU34" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV34" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW34" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX34" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E35" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F35" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G35" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J35" s="29">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BU35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="20"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BU36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E37" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F37" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G37" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="29">
+        <v>1</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="20"/>
+      <c r="C38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E39" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F39" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E41" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F41" s="19">
+        <v>41664</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11"/>
+      <c r="BE41" s="11"/>
+      <c r="BF41" s="11"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="11"/>
+      <c r="BI41" s="11"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E43" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="12"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BC44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="13"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E45" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="12"/>
+      <c r="BS46" s="12"/>
+      <c r="BT46" s="12"/>
+      <c r="BV46" s="12"/>
+      <c r="BW46" s="12"/>
+      <c r="BX46" s="13"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E47" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F47" s="19">
+        <v>41670</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="11"/>
+      <c r="BN47" s="11"/>
+      <c r="BO47" s="11"/>
+      <c r="BP47" s="11"/>
+      <c r="BQ47" s="37"/>
+      <c r="BR47" s="12"/>
+      <c r="BS47" s="12"/>
+      <c r="BT47" s="12"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="13"/>
+    </row>
+    <row r="48" spans="2:76">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="13"/>
+      <c r="BR48" s="12"/>
+      <c r="BS48" s="12"/>
+      <c r="BT48" s="12"/>
+      <c r="BV48" s="12"/>
+      <c r="BW48" s="12"/>
+      <c r="BX48" s="13"/>
+    </row>
+    <row r="49" spans="2:76">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E49" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="12"/>
+      <c r="AY49" s="12"/>
+      <c r="AZ49" s="12"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="12"/>
+      <c r="BD49" s="12"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="12"/>
+      <c r="BG49" s="12"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="12"/>
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="12"/>
+      <c r="BO49" s="12"/>
+      <c r="BP49" s="12"/>
+      <c r="BQ49" s="13"/>
+      <c r="BR49" s="38"/>
+      <c r="BS49" s="11"/>
+      <c r="BT49" s="11"/>
+      <c r="BU49" s="11"/>
+      <c r="BV49" s="11"/>
+      <c r="BW49" s="11"/>
+      <c r="BX49" s="37"/>
+    </row>
+    <row r="50" spans="2:76">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="13"/>
+      <c r="BR50" s="12"/>
+      <c r="BS50" s="12"/>
+      <c r="BT50" s="12"/>
+      <c r="BV50" s="12"/>
+      <c r="BW50" s="12"/>
+      <c r="BX50" s="13"/>
+    </row>
+    <row r="51" spans="2:76">
+      <c r="B51" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="46"/>
+      <c r="AP51" s="44"/>
+      <c r="AQ51" s="44"/>
+      <c r="AR51" s="44"/>
+      <c r="AS51" s="45"/>
+      <c r="AT51" s="44"/>
+      <c r="AU51" s="44"/>
+      <c r="AV51" s="44"/>
+      <c r="AW51" s="44"/>
+      <c r="AX51" s="44"/>
+      <c r="AY51" s="44"/>
+      <c r="AZ51" s="44"/>
+      <c r="BA51" s="44"/>
+      <c r="BB51" s="44"/>
+      <c r="BC51" s="45"/>
+      <c r="BD51" s="44"/>
+      <c r="BE51" s="44"/>
+      <c r="BF51" s="44"/>
+      <c r="BG51" s="44"/>
+      <c r="BH51" s="44"/>
+      <c r="BI51" s="44"/>
+      <c r="BJ51" s="44"/>
+      <c r="BK51" s="44"/>
+      <c r="BL51" s="44"/>
+      <c r="BM51" s="44"/>
+      <c r="BN51" s="44"/>
+      <c r="BO51" s="44"/>
+      <c r="BP51" s="44"/>
+      <c r="BQ51" s="46"/>
+      <c r="BR51" s="44"/>
+      <c r="BS51" s="44"/>
+      <c r="BT51" s="44"/>
+      <c r="BU51" s="44"/>
+      <c r="BV51" s="44"/>
+      <c r="BW51" s="44"/>
+      <c r="BX51" s="46"/>
+    </row>
+    <row r="52" spans="2:76">
+      <c r="B52" s="39"/>
+      <c r="C52" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="44"/>
+      <c r="AL52" s="44"/>
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="44"/>
+      <c r="AQ52" s="44"/>
+      <c r="AR52" s="44"/>
+      <c r="AS52" s="45"/>
+      <c r="AT52" s="44"/>
+      <c r="AU52" s="44"/>
+      <c r="AV52" s="44"/>
+      <c r="AW52" s="44"/>
+      <c r="AX52" s="44"/>
+      <c r="AY52" s="44"/>
+      <c r="AZ52" s="44"/>
+      <c r="BA52" s="44"/>
+      <c r="BB52" s="44"/>
+      <c r="BC52" s="45"/>
+      <c r="BD52" s="44"/>
+      <c r="BE52" s="44"/>
+      <c r="BF52" s="44"/>
+      <c r="BG52" s="44"/>
+      <c r="BH52" s="44"/>
+      <c r="BI52" s="44"/>
+      <c r="BJ52" s="44"/>
+      <c r="BK52" s="44"/>
+      <c r="BL52" s="44"/>
+      <c r="BM52" s="44"/>
+      <c r="BN52" s="44"/>
+      <c r="BO52" s="44"/>
+      <c r="BP52" s="44"/>
+      <c r="BQ52" s="46"/>
+      <c r="BR52" s="44"/>
+      <c r="BS52" s="44"/>
+      <c r="BT52" s="44"/>
+      <c r="BU52" s="44"/>
+      <c r="BV52" s="44"/>
+      <c r="BW52" s="44"/>
+      <c r="BX52" s="46"/>
+    </row>
+    <row r="53" spans="2:76">
+      <c r="B53" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="44"/>
+      <c r="AL53" s="44"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="44"/>
+      <c r="AQ53" s="44"/>
+      <c r="AR53" s="44"/>
+      <c r="AS53" s="45"/>
+      <c r="AT53" s="44"/>
+      <c r="AU53" s="44"/>
+      <c r="AV53" s="44"/>
+      <c r="AW53" s="44"/>
+      <c r="AX53" s="44"/>
+      <c r="AY53" s="44"/>
+      <c r="AZ53" s="44"/>
+      <c r="BA53" s="44"/>
+      <c r="BB53" s="44"/>
+      <c r="BC53" s="45"/>
+      <c r="BD53" s="44"/>
+      <c r="BE53" s="44"/>
+      <c r="BF53" s="44"/>
+      <c r="BG53" s="44"/>
+      <c r="BH53" s="44"/>
+      <c r="BI53" s="44"/>
+      <c r="BJ53" s="44"/>
+      <c r="BK53" s="44"/>
+      <c r="BL53" s="44"/>
+      <c r="BM53" s="44"/>
+      <c r="BN53" s="44"/>
+      <c r="BO53" s="44"/>
+      <c r="BP53" s="44"/>
+      <c r="BQ53" s="46"/>
+      <c r="BR53" s="44"/>
+      <c r="BS53" s="44"/>
+      <c r="BT53" s="44"/>
+      <c r="BU53" s="44"/>
+      <c r="BV53" s="44"/>
+      <c r="BW53" s="44"/>
+      <c r="BX53" s="46"/>
+    </row>
+    <row r="54" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B54" s="48"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="50"/>
+      <c r="X54" s="50"/>
+      <c r="Y54" s="50"/>
+      <c r="Z54" s="50"/>
+      <c r="AA54" s="50"/>
+      <c r="AB54" s="50"/>
+      <c r="AC54" s="50"/>
+      <c r="AD54" s="50"/>
+      <c r="AE54" s="50"/>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
+      <c r="AI54" s="50"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="50"/>
+      <c r="AL54" s="50"/>
+      <c r="AM54" s="50"/>
+      <c r="AN54" s="50"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="50"/>
+      <c r="AQ54" s="50"/>
+      <c r="AR54" s="50"/>
+      <c r="AS54" s="50"/>
+      <c r="AT54" s="50"/>
+      <c r="AU54" s="50"/>
+      <c r="AV54" s="50"/>
+      <c r="AW54" s="50"/>
+      <c r="AX54" s="50"/>
+      <c r="AY54" s="50"/>
+      <c r="AZ54" s="50"/>
+      <c r="BA54" s="50"/>
+      <c r="BB54" s="50"/>
+      <c r="BC54" s="50"/>
+      <c r="BD54" s="50"/>
+      <c r="BE54" s="50"/>
+      <c r="BF54" s="50"/>
+      <c r="BG54" s="50"/>
+      <c r="BH54" s="50"/>
+      <c r="BI54" s="50"/>
+      <c r="BJ54" s="50"/>
+      <c r="BK54" s="50"/>
+      <c r="BL54" s="50"/>
+      <c r="BM54" s="50"/>
+      <c r="BN54" s="50"/>
+      <c r="BO54" s="50"/>
+      <c r="BP54" s="50"/>
+      <c r="BQ54" s="51"/>
+      <c r="BR54" s="50"/>
+      <c r="BS54" s="50"/>
+      <c r="BT54" s="50"/>
+      <c r="BU54" s="50"/>
+      <c r="BV54" s="50"/>
+      <c r="BW54" s="50"/>
+      <c r="BX54" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7317,16 +11200,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7373,131 +11255,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>135</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7544,1392 +11406,139 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
@@ -10817,194 +13426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -12984,7 +15406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -14718,7 +17140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -14870,7 +17292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -15007,7 +17429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -15157,7 +17579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -15305,124 +17727,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,34 +7,35 @@
     <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="2月3日" sheetId="21" r:id="rId1"/>
-    <sheet name="1月27日" sheetId="20" r:id="rId2"/>
-    <sheet name="1月20日" sheetId="19" r:id="rId3"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId4"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId5"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId6"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId7"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId8"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId9"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId10"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId11"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId12"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId13"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId14"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId15"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId16"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId17"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId18"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId19"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId20"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId21"/>
+    <sheet name="2月10日" sheetId="22" r:id="rId1"/>
+    <sheet name="2月3日" sheetId="21" r:id="rId2"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId3"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId4"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId5"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId6"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId7"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId8"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId9"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId10"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId11"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId12"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId13"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId14"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId15"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId16"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId17"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId18"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId19"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId20"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId21"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="316">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -4618,6 +4619,145 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月4日～2月10日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証の認証速度を速くすること。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>27h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼン資料の第一版を完成させた。</t>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・指紋認証機能の実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　SourceAFISをAndroid(Java)に組み込む方法について調査を行った。</t>
+    <rPh sb="26" eb="27">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　私の調査では良い解決法を得ることができなかったが、</t>
+    <rPh sb="1" eb="2">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カイケツホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　SourceAFISの指紋認証機能を組み込むことができることを理解した。</t>
+    <rPh sb="12" eb="14">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　山内さんに頂いたJNAを用いてC言語を利用した指紋認証プログラムを参考として、</t>
+    <rPh sb="1" eb="3">
+      <t>ヤマウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5443,9 +5583,3623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="B17" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="B20" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="B23" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76">
+      <c r="A25" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+    </row>
+    <row r="27" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="31"/>
+      <c r="BP27" s="31"/>
+      <c r="BQ27" s="32"/>
+      <c r="BR27" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="31"/>
+      <c r="BX27" s="32"/>
+    </row>
+    <row r="28" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B28" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>2</v>
+      </c>
+      <c r="M28" s="17">
+        <v>3</v>
+      </c>
+      <c r="N28" s="17">
+        <v>4</v>
+      </c>
+      <c r="O28" s="17">
+        <v>5</v>
+      </c>
+      <c r="P28" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>7</v>
+      </c>
+      <c r="R28" s="17">
+        <v>8</v>
+      </c>
+      <c r="S28" s="17">
+        <v>9</v>
+      </c>
+      <c r="T28" s="17">
+        <v>10</v>
+      </c>
+      <c r="U28" s="17">
+        <v>11</v>
+      </c>
+      <c r="V28" s="17">
+        <v>12</v>
+      </c>
+      <c r="W28" s="17">
+        <v>13</v>
+      </c>
+      <c r="X28" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG28" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH28" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI28" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ28" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK28" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL28" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM28" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN28" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO28" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT28" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU28" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV28" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW28" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX28" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY28" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ28" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA28" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB28" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC28" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD28" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE28" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF28" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG28" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH28" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI28" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ28" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK28" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL28" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM28" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN28" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO28" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP28" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ28" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR28" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS28" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT28" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU28" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV28" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW28" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX28" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76">
+      <c r="B29" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E29" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F29" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G29" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" s="29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="13"/>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="B30" s="20"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="13"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="B31" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E31" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F31" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G31" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" s="29">
+        <v>1</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="13"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="20"/>
+      <c r="C32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E33" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F33" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="28"/>
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E35" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F35" s="19">
+        <v>41664</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="28"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E37" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E39" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="11"/>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E41" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F41" s="19">
+        <v>41670</v>
+      </c>
+      <c r="G41" s="19">
+        <v>41676</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" s="29">
+        <v>1</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="11"/>
+      <c r="BN41" s="11"/>
+      <c r="BO41" s="11"/>
+      <c r="BP41" s="11"/>
+      <c r="BQ41" s="37"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
+      <c r="AS42" s="28"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E43" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="11"/>
+      <c r="BT43" s="11"/>
+      <c r="BU43" s="11"/>
+      <c r="BV43" s="11"/>
+      <c r="BW43" s="11"/>
+      <c r="BX43" s="37"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="13"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="46"/>
+      <c r="AP45" s="44"/>
+      <c r="AQ45" s="44"/>
+      <c r="AR45" s="44"/>
+      <c r="AS45" s="45"/>
+      <c r="AT45" s="44"/>
+      <c r="AU45" s="44"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
+      <c r="BB45" s="44"/>
+      <c r="BC45" s="45"/>
+      <c r="BD45" s="44"/>
+      <c r="BE45" s="44"/>
+      <c r="BF45" s="44"/>
+      <c r="BG45" s="44"/>
+      <c r="BH45" s="44"/>
+      <c r="BI45" s="44"/>
+      <c r="BJ45" s="44"/>
+      <c r="BK45" s="44"/>
+      <c r="BL45" s="44"/>
+      <c r="BM45" s="44"/>
+      <c r="BN45" s="44"/>
+      <c r="BO45" s="44"/>
+      <c r="BP45" s="44"/>
+      <c r="BQ45" s="46"/>
+      <c r="BR45" s="44"/>
+      <c r="BS45" s="44"/>
+      <c r="BT45" s="44"/>
+      <c r="BU45" s="44"/>
+      <c r="BV45" s="44"/>
+      <c r="BW45" s="44"/>
+      <c r="BX45" s="46"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="39"/>
+      <c r="C46" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="45"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="46"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="46"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="44"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="44"/>
+      <c r="AW47" s="44"/>
+      <c r="AX47" s="44"/>
+      <c r="AY47" s="44"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="44"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="44"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="44"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="46"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="44"/>
+      <c r="BT47" s="44"/>
+      <c r="BU47" s="44"/>
+      <c r="BV47" s="44"/>
+      <c r="BW47" s="44"/>
+      <c r="BX47" s="46"/>
+    </row>
+    <row r="48" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="50"/>
+      <c r="W48" s="50"/>
+      <c r="X48" s="50"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="50"/>
+      <c r="AR48" s="50"/>
+      <c r="AS48" s="50"/>
+      <c r="AT48" s="50"/>
+      <c r="AU48" s="50"/>
+      <c r="AV48" s="50"/>
+      <c r="AW48" s="50"/>
+      <c r="AX48" s="50"/>
+      <c r="AY48" s="50"/>
+      <c r="AZ48" s="50"/>
+      <c r="BA48" s="50"/>
+      <c r="BB48" s="50"/>
+      <c r="BC48" s="50"/>
+      <c r="BD48" s="50"/>
+      <c r="BE48" s="50"/>
+      <c r="BF48" s="50"/>
+      <c r="BG48" s="50"/>
+      <c r="BH48" s="50"/>
+      <c r="BI48" s="50"/>
+      <c r="BJ48" s="50"/>
+      <c r="BK48" s="50"/>
+      <c r="BL48" s="50"/>
+      <c r="BM48" s="50"/>
+      <c r="BN48" s="50"/>
+      <c r="BO48" s="50"/>
+      <c r="BP48" s="50"/>
+      <c r="BQ48" s="51"/>
+      <c r="BR48" s="50"/>
+      <c r="BS48" s="50"/>
+      <c r="BT48" s="50"/>
+      <c r="BU48" s="50"/>
+      <c r="BV48" s="50"/>
+      <c r="BW48" s="50"/>
+      <c r="BX48" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7518,16 +11272,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7574,80 +11327,128 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>125</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7694,131 +11495,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>135</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7865,1241 +11646,139 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX61"/>
   <sheetViews>
@@ -11200,345 +13879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
@@ -13426,7 +15767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -15406,7 +17747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -17140,7 +19481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -17292,7 +19633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -17429,7 +19770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -17577,154 +19918,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,35 +7,36 @@
     <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="2月10日" sheetId="22" r:id="rId1"/>
-    <sheet name="2月3日" sheetId="21" r:id="rId2"/>
-    <sheet name="1月27日" sheetId="20" r:id="rId3"/>
-    <sheet name="1月20日" sheetId="19" r:id="rId4"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId5"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId6"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId7"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId8"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId9"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId10"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId11"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId12"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId13"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId14"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId15"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId16"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId17"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId18"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId19"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId20"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId21"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId22"/>
+    <sheet name="2月17日" sheetId="23" r:id="rId1"/>
+    <sheet name="2月10日" sheetId="22" r:id="rId2"/>
+    <sheet name="2月3日" sheetId="21" r:id="rId3"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId4"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId5"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId6"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId7"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId8"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId9"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId10"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId11"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId12"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId13"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId14"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId15"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId16"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId17"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId18"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId19"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId20"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId21"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId22"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="326">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -4758,6 +4759,178 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月11日～2月17日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コードレビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　札幌営業所で実施したプレゼン練習時に</t>
+    <rPh sb="1" eb="3">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイギョウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　指摘された修正点についてパワーポイントの修正を行った。</t>
+    <rPh sb="1" eb="3">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　品質向上させるために樋原さんと前田さんにコードレビューをして頂いた。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒバラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テストの実施</t>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  レビュー対象：MainActivity、選択画面(登録、削除、編集を選ぶ画面)、指紋登録機能、指紋削除機能。</t>
+    <rPh sb="6" eb="8">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　レビュー時の指摘内容は下記に記載。</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　https://gist.github.com/mae0003/8956147</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、レビュー指摘内容に対してソースコードの修正を行った。</t>
+    <rPh sb="8" eb="10">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5583,9 +5756,3661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="B17" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="B19" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="B22" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="A24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:76">
+      <c r="B25" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="B26" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="A28" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="31"/>
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="32"/>
+    </row>
+    <row r="31" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B31" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1</v>
+      </c>
+      <c r="L31" s="17">
+        <v>2</v>
+      </c>
+      <c r="M31" s="17">
+        <v>3</v>
+      </c>
+      <c r="N31" s="17">
+        <v>4</v>
+      </c>
+      <c r="O31" s="17">
+        <v>5</v>
+      </c>
+      <c r="P31" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>7</v>
+      </c>
+      <c r="R31" s="17">
+        <v>8</v>
+      </c>
+      <c r="S31" s="17">
+        <v>9</v>
+      </c>
+      <c r="T31" s="17">
+        <v>10</v>
+      </c>
+      <c r="U31" s="17">
+        <v>11</v>
+      </c>
+      <c r="V31" s="17">
+        <v>12</v>
+      </c>
+      <c r="W31" s="17">
+        <v>13</v>
+      </c>
+      <c r="X31" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG31" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH31" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI31" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ31" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK31" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL31" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM31" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN31" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO31" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS31" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT31" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU31" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV31" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW31" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX31" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY31" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ31" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA31" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB31" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC31" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD31" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE31" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF31" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG31" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH31" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI31" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ31" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK31" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL31" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM31" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN31" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO31" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP31" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ31" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR31" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS31" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT31" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU31" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV31" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW31" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX31" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E32" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F32" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G32" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BU32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="20"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BU33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E34" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F34" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G34" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="20"/>
+      <c r="C35" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E36" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F36" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+      <c r="AZ36" s="12"/>
+      <c r="BA36" s="12"/>
+      <c r="BB36" s="12"/>
+      <c r="BC36" s="12"/>
+      <c r="BD36" s="12"/>
+      <c r="BE36" s="12"/>
+      <c r="BF36" s="12"/>
+      <c r="BG36" s="12"/>
+      <c r="BH36" s="12"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="28"/>
+      <c r="AW37" s="28"/>
+      <c r="AX37" s="28"/>
+      <c r="AY37" s="28"/>
+      <c r="AZ37" s="28"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E38" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F38" s="19">
+        <v>41664</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="J38" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E40" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F40" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G40" s="19">
+        <v>41687</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="29">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="11"/>
+      <c r="BJ40" s="11"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="12"/>
+      <c r="BN40" s="12"/>
+      <c r="BO40" s="12"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E42" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="11"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="13"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E44" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F44" s="19">
+        <v>41670</v>
+      </c>
+      <c r="G44" s="19">
+        <v>41676</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" s="29">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="11"/>
+      <c r="BN44" s="11"/>
+      <c r="BO44" s="11"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="37"/>
+      <c r="BR44" s="12"/>
+      <c r="BS44" s="12"/>
+      <c r="BT44" s="12"/>
+      <c r="BV44" s="12"/>
+      <c r="BW44" s="12"/>
+      <c r="BX44" s="13"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="28"/>
+      <c r="BA45" s="28"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="28"/>
+      <c r="BD45" s="28"/>
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="28"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="12"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E46" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F46" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="11"/>
+      <c r="BT46" s="11"/>
+      <c r="BU46" s="11"/>
+      <c r="BV46" s="11"/>
+      <c r="BW46" s="11"/>
+      <c r="BX46" s="37"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="28"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="12"/>
+      <c r="BN47" s="12"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="13"/>
+      <c r="BR47" s="12"/>
+      <c r="BS47" s="12"/>
+      <c r="BT47" s="12"/>
+      <c r="BV47" s="12"/>
+      <c r="BW47" s="12"/>
+      <c r="BX47" s="13"/>
+    </row>
+    <row r="48" spans="2:76">
+      <c r="B48" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="44"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="44"/>
+      <c r="AU48" s="44"/>
+      <c r="AV48" s="44"/>
+      <c r="AW48" s="44"/>
+      <c r="AX48" s="44"/>
+      <c r="AY48" s="44"/>
+      <c r="AZ48" s="44"/>
+      <c r="BA48" s="44"/>
+      <c r="BB48" s="44"/>
+      <c r="BC48" s="45"/>
+      <c r="BD48" s="44"/>
+      <c r="BE48" s="44"/>
+      <c r="BF48" s="44"/>
+      <c r="BG48" s="44"/>
+      <c r="BH48" s="44"/>
+      <c r="BI48" s="44"/>
+      <c r="BJ48" s="44"/>
+      <c r="BK48" s="44"/>
+      <c r="BL48" s="44"/>
+      <c r="BM48" s="44"/>
+      <c r="BN48" s="44"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="44"/>
+      <c r="BQ48" s="46"/>
+      <c r="BR48" s="44"/>
+      <c r="BS48" s="44"/>
+      <c r="BT48" s="44"/>
+      <c r="BU48" s="44"/>
+      <c r="BV48" s="44"/>
+      <c r="BW48" s="44"/>
+      <c r="BX48" s="46"/>
+    </row>
+    <row r="49" spans="2:76">
+      <c r="B49" s="39"/>
+      <c r="C49" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="45"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="44"/>
+      <c r="AQ49" s="44"/>
+      <c r="AR49" s="44"/>
+      <c r="AS49" s="45"/>
+      <c r="AT49" s="44"/>
+      <c r="AU49" s="44"/>
+      <c r="AV49" s="44"/>
+      <c r="AW49" s="44"/>
+      <c r="AX49" s="44"/>
+      <c r="AY49" s="44"/>
+      <c r="AZ49" s="44"/>
+      <c r="BA49" s="44"/>
+      <c r="BB49" s="44"/>
+      <c r="BC49" s="45"/>
+      <c r="BD49" s="44"/>
+      <c r="BE49" s="44"/>
+      <c r="BF49" s="44"/>
+      <c r="BG49" s="44"/>
+      <c r="BH49" s="44"/>
+      <c r="BI49" s="44"/>
+      <c r="BJ49" s="44"/>
+      <c r="BK49" s="44"/>
+      <c r="BL49" s="44"/>
+      <c r="BM49" s="44"/>
+      <c r="BN49" s="44"/>
+      <c r="BO49" s="44"/>
+      <c r="BP49" s="44"/>
+      <c r="BQ49" s="46"/>
+      <c r="BR49" s="44"/>
+      <c r="BS49" s="44"/>
+      <c r="BT49" s="44"/>
+      <c r="BU49" s="44"/>
+      <c r="BV49" s="44"/>
+      <c r="BW49" s="44"/>
+      <c r="BX49" s="46"/>
+    </row>
+    <row r="50" spans="2:76">
+      <c r="B50" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="46"/>
+      <c r="AP50" s="44"/>
+      <c r="AQ50" s="44"/>
+      <c r="AR50" s="44"/>
+      <c r="AS50" s="45"/>
+      <c r="AT50" s="44"/>
+      <c r="AU50" s="44"/>
+      <c r="AV50" s="44"/>
+      <c r="AW50" s="44"/>
+      <c r="AX50" s="44"/>
+      <c r="AY50" s="44"/>
+      <c r="AZ50" s="44"/>
+      <c r="BA50" s="44"/>
+      <c r="BB50" s="44"/>
+      <c r="BC50" s="45"/>
+      <c r="BD50" s="44"/>
+      <c r="BE50" s="44"/>
+      <c r="BF50" s="44"/>
+      <c r="BG50" s="44"/>
+      <c r="BH50" s="44"/>
+      <c r="BI50" s="44"/>
+      <c r="BJ50" s="44"/>
+      <c r="BK50" s="44"/>
+      <c r="BL50" s="44"/>
+      <c r="BM50" s="44"/>
+      <c r="BN50" s="44"/>
+      <c r="BO50" s="44"/>
+      <c r="BP50" s="44"/>
+      <c r="BQ50" s="46"/>
+      <c r="BR50" s="44"/>
+      <c r="BS50" s="44"/>
+      <c r="BT50" s="44"/>
+      <c r="BU50" s="44"/>
+      <c r="BV50" s="44"/>
+      <c r="BW50" s="44"/>
+      <c r="BX50" s="46"/>
+    </row>
+    <row r="51" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B51" s="48"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
+      <c r="AR51" s="50"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="50"/>
+      <c r="AU51" s="50"/>
+      <c r="AV51" s="50"/>
+      <c r="AW51" s="50"/>
+      <c r="AX51" s="50"/>
+      <c r="AY51" s="50"/>
+      <c r="AZ51" s="50"/>
+      <c r="BA51" s="50"/>
+      <c r="BB51" s="50"/>
+      <c r="BC51" s="50"/>
+      <c r="BD51" s="50"/>
+      <c r="BE51" s="50"/>
+      <c r="BF51" s="50"/>
+      <c r="BG51" s="50"/>
+      <c r="BH51" s="50"/>
+      <c r="BI51" s="50"/>
+      <c r="BJ51" s="50"/>
+      <c r="BK51" s="50"/>
+      <c r="BL51" s="50"/>
+      <c r="BM51" s="50"/>
+      <c r="BN51" s="50"/>
+      <c r="BO51" s="50"/>
+      <c r="BP51" s="50"/>
+      <c r="BQ51" s="51"/>
+      <c r="BR51" s="50"/>
+      <c r="BS51" s="50"/>
+      <c r="BT51" s="50"/>
+      <c r="BU51" s="50"/>
+      <c r="BV51" s="50"/>
+      <c r="BW51" s="50"/>
+      <c r="BX51" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7632,16 +11457,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7688,91 +11512,79 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>153</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>159</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>160</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>155</v>
+      <c r="B19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>125</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -7782,16 +11594,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7838,80 +11649,128 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>125</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7958,131 +11817,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>135</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -8129,1073 +11968,139 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX54"/>
   <sheetViews>
@@ -11272,513 +14177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX61"/>
   <sheetViews>
@@ -13879,7 +16278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
@@ -15767,7 +18166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -17747,7 +20146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -19481,7 +21880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -19633,7 +22032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM19"/>
   <sheetViews>
@@ -19768,154 +22167,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,36 +7,37 @@
     <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="2月17日" sheetId="23" r:id="rId1"/>
-    <sheet name="2月10日" sheetId="22" r:id="rId2"/>
-    <sheet name="2月3日" sheetId="21" r:id="rId3"/>
-    <sheet name="1月27日" sheetId="20" r:id="rId4"/>
-    <sheet name="1月20日" sheetId="19" r:id="rId5"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId6"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId7"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId8"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId9"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId10"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId11"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId12"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId13"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId14"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId15"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId16"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId17"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId18"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId19"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId20"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId21"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId22"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId23"/>
+    <sheet name="2月24日" sheetId="24" r:id="rId1"/>
+    <sheet name="2月17日" sheetId="23" r:id="rId2"/>
+    <sheet name="2月10日" sheetId="22" r:id="rId3"/>
+    <sheet name="2月3日" sheetId="21" r:id="rId4"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId5"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId6"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId7"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId8"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId9"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId10"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId11"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId12"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId13"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId14"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId15"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId16"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId17"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId18"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId19"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId20"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId21"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId22"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId23"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="338">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -4930,6 +4931,159 @@
       <t>シュウセイ</t>
     </rPh>
     <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月18日～2月24日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリの動画、キャプチャを撮ること</t>
+    <rPh sb="5" eb="7">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実演出来ない状況になったときのためにアプリの動画、キャプチャを撮っておくこと。</t>
+    <rPh sb="0" eb="2">
+      <t>ジツエン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>28h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　19日のミーティング時に発表練習を行い、</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　そのときアンケートより修正したほうが良い箇所について</t>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、ミーティング後と22日の土曜日に</t>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ドヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プレゼンテーションの資料のチェックをして頂いたため、</t>
+    <rPh sb="11" eb="13">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　その時の指摘事項についてもプレゼン資料の修正を行った。</t>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレゼン資料の修正</t>
+    <rPh sb="5" eb="7">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実機のチェック</t>
+    <rPh sb="1" eb="3">
+      <t>ジッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　修正を行った。</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5756,9 +5910,3669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="B19" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="B22" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="B23" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="B24" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="A26" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+    </row>
+    <row r="28" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="31"/>
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="31"/>
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="32"/>
+    </row>
+    <row r="29" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B29" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17">
+        <v>2</v>
+      </c>
+      <c r="M29" s="17">
+        <v>3</v>
+      </c>
+      <c r="N29" s="17">
+        <v>4</v>
+      </c>
+      <c r="O29" s="17">
+        <v>5</v>
+      </c>
+      <c r="P29" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>7</v>
+      </c>
+      <c r="R29" s="17">
+        <v>8</v>
+      </c>
+      <c r="S29" s="17">
+        <v>9</v>
+      </c>
+      <c r="T29" s="17">
+        <v>10</v>
+      </c>
+      <c r="U29" s="17">
+        <v>11</v>
+      </c>
+      <c r="V29" s="17">
+        <v>12</v>
+      </c>
+      <c r="W29" s="17">
+        <v>13</v>
+      </c>
+      <c r="X29" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ29" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK29" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN29" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO29" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP29" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS29" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU29" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV29" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW29" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX29" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY29" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ29" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA29" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB29" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC29" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD29" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE29" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF29" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG29" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH29" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI29" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ29" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK29" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL29" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM29" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN29" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO29" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP29" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ29" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR29" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT29" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU29" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV29" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW29" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX29" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="B30" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E30" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F30" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G30" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="13"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="B31" s="20"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="13"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E32" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F32" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G32" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="20"/>
+      <c r="C33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E34" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F34" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="28"/>
+      <c r="AZ35" s="28"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E36" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F36" s="19">
+        <v>41664</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E38" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F38" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G38" s="19">
+        <v>41687</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="29">
+        <v>1</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="11"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E40" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="11"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E42" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F42" s="19">
+        <v>41670</v>
+      </c>
+      <c r="G42" s="19">
+        <v>41676</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E44" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F44" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+      <c r="BX44" s="37"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="28"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="28"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="45"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="46"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="46"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="39"/>
+      <c r="C47" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="44"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="44"/>
+      <c r="AW47" s="44"/>
+      <c r="AX47" s="44"/>
+      <c r="AY47" s="44"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="44"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="44"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="44"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="46"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="44"/>
+      <c r="BT47" s="44"/>
+      <c r="BU47" s="44"/>
+      <c r="BV47" s="44"/>
+      <c r="BW47" s="44"/>
+      <c r="BX47" s="46"/>
+    </row>
+    <row r="48" spans="2:76">
+      <c r="B48" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="44"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="44"/>
+      <c r="AU48" s="44"/>
+      <c r="AV48" s="44"/>
+      <c r="AW48" s="44"/>
+      <c r="AX48" s="44"/>
+      <c r="AY48" s="44"/>
+      <c r="AZ48" s="44"/>
+      <c r="BA48" s="44"/>
+      <c r="BB48" s="44"/>
+      <c r="BC48" s="45"/>
+      <c r="BD48" s="44"/>
+      <c r="BE48" s="44"/>
+      <c r="BF48" s="44"/>
+      <c r="BG48" s="44"/>
+      <c r="BH48" s="44"/>
+      <c r="BI48" s="44"/>
+      <c r="BJ48" s="44"/>
+      <c r="BK48" s="44"/>
+      <c r="BL48" s="44"/>
+      <c r="BM48" s="44"/>
+      <c r="BN48" s="44"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="44"/>
+      <c r="BQ48" s="46"/>
+      <c r="BR48" s="44"/>
+      <c r="BS48" s="44"/>
+      <c r="BT48" s="44"/>
+      <c r="BU48" s="44"/>
+      <c r="BV48" s="44"/>
+      <c r="BW48" s="44"/>
+      <c r="BX48" s="46"/>
+    </row>
+    <row r="49" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
+      <c r="AR49" s="50"/>
+      <c r="AS49" s="50"/>
+      <c r="AT49" s="50"/>
+      <c r="AU49" s="50"/>
+      <c r="AV49" s="50"/>
+      <c r="AW49" s="50"/>
+      <c r="AX49" s="50"/>
+      <c r="AY49" s="50"/>
+      <c r="AZ49" s="50"/>
+      <c r="BA49" s="50"/>
+      <c r="BB49" s="50"/>
+      <c r="BC49" s="50"/>
+      <c r="BD49" s="50"/>
+      <c r="BE49" s="50"/>
+      <c r="BF49" s="50"/>
+      <c r="BG49" s="50"/>
+      <c r="BH49" s="50"/>
+      <c r="BI49" s="50"/>
+      <c r="BJ49" s="50"/>
+      <c r="BK49" s="50"/>
+      <c r="BL49" s="50"/>
+      <c r="BM49" s="50"/>
+      <c r="BN49" s="50"/>
+      <c r="BO49" s="50"/>
+      <c r="BP49" s="50"/>
+      <c r="BQ49" s="51"/>
+      <c r="BR49" s="50"/>
+      <c r="BS49" s="50"/>
+      <c r="BT49" s="50"/>
+      <c r="BU49" s="50"/>
+      <c r="BV49" s="50"/>
+      <c r="BW49" s="50"/>
+      <c r="BX49" s="51"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7830,16 +11644,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -7886,91 +11699,66 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>169</v>
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>161</v>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>125</v>
+      <c r="B9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>163</v>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>164</v>
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>165</v>
+      <c r="A15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="6" t="s">
-        <v>167</v>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7980,16 +11768,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -8036,91 +11823,79 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>151</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>153</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>158</v>
+      <c r="C13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>159</v>
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>160</v>
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>155</v>
+      <c r="B19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
-        <v>125</v>
+      <c r="B20" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8130,16 +11905,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -8186,80 +11960,128 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>147</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>149</v>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>150</v>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>125</v>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -8306,131 +12128,111 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>135</v>
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+      <c r="B5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
-        <v>125</v>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -8477,936 +12279,139 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>122</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>128</v>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>129</v>
+      <c r="D12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
-        <v>125</v>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX48"/>
   <sheetViews>
@@ -11457,650 +14462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX54"/>
   <sheetViews>
@@ -14177,7 +16539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX61"/>
   <sheetViews>
@@ -16278,7 +18640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
@@ -18166,7 +20528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -20146,7 +22508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -21880,7 +24242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -22030,141 +24392,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/進捗報告書.xlsx
+++ b/進捗報告書.xlsx
@@ -7,37 +7,38 @@
     <workbookView xWindow="7335" yWindow="240" windowWidth="15075" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="2月24日" sheetId="24" r:id="rId1"/>
-    <sheet name="2月17日" sheetId="23" r:id="rId2"/>
-    <sheet name="2月10日" sheetId="22" r:id="rId3"/>
-    <sheet name="2月3日" sheetId="21" r:id="rId4"/>
-    <sheet name="1月27日" sheetId="20" r:id="rId5"/>
-    <sheet name="1月20日" sheetId="19" r:id="rId6"/>
-    <sheet name="1月13日" sheetId="18" r:id="rId7"/>
-    <sheet name="1月6日" sheetId="17" r:id="rId8"/>
-    <sheet name="12月30日" sheetId="16" r:id="rId9"/>
-    <sheet name="12月23日" sheetId="15" r:id="rId10"/>
-    <sheet name="12月16日" sheetId="14" r:id="rId11"/>
-    <sheet name="12月9日" sheetId="13" r:id="rId12"/>
-    <sheet name="12月2日" sheetId="12" r:id="rId13"/>
-    <sheet name="11月25日" sheetId="11" r:id="rId14"/>
-    <sheet name="11月18日" sheetId="10" r:id="rId15"/>
-    <sheet name="11月11日" sheetId="9" r:id="rId16"/>
-    <sheet name="11月4日" sheetId="8" r:id="rId17"/>
-    <sheet name="10月28日" sheetId="7" r:id="rId18"/>
-    <sheet name="10月21日" sheetId="6" r:id="rId19"/>
-    <sheet name="10月14日" sheetId="5" r:id="rId20"/>
-    <sheet name="10月7日" sheetId="4" r:id="rId21"/>
-    <sheet name="9月30日" sheetId="3" r:id="rId22"/>
-    <sheet name="9月23日" sheetId="2" r:id="rId23"/>
-    <sheet name="09月16日" sheetId="1" r:id="rId24"/>
+    <sheet name="3月3日" sheetId="24" r:id="rId1"/>
+    <sheet name="2月24日" sheetId="25" r:id="rId2"/>
+    <sheet name="2月17日" sheetId="23" r:id="rId3"/>
+    <sheet name="2月10日" sheetId="22" r:id="rId4"/>
+    <sheet name="2月3日" sheetId="21" r:id="rId5"/>
+    <sheet name="1月27日" sheetId="20" r:id="rId6"/>
+    <sheet name="1月20日" sheetId="19" r:id="rId7"/>
+    <sheet name="1月13日" sheetId="18" r:id="rId8"/>
+    <sheet name="1月6日" sheetId="17" r:id="rId9"/>
+    <sheet name="12月30日" sheetId="16" r:id="rId10"/>
+    <sheet name="12月23日" sheetId="15" r:id="rId11"/>
+    <sheet name="12月16日" sheetId="14" r:id="rId12"/>
+    <sheet name="12月9日" sheetId="13" r:id="rId13"/>
+    <sheet name="12月2日" sheetId="12" r:id="rId14"/>
+    <sheet name="11月25日" sheetId="11" r:id="rId15"/>
+    <sheet name="11月18日" sheetId="10" r:id="rId16"/>
+    <sheet name="11月11日" sheetId="9" r:id="rId17"/>
+    <sheet name="11月4日" sheetId="8" r:id="rId18"/>
+    <sheet name="10月28日" sheetId="7" r:id="rId19"/>
+    <sheet name="10月21日" sheetId="6" r:id="rId20"/>
+    <sheet name="10月14日" sheetId="5" r:id="rId21"/>
+    <sheet name="10月7日" sheetId="4" r:id="rId22"/>
+    <sheet name="9月30日" sheetId="3" r:id="rId23"/>
+    <sheet name="9月23日" sheetId="2" r:id="rId24"/>
+    <sheet name="09月16日" sheetId="1" r:id="rId25"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="351">
   <si>
     <t>進捗報告書</t>
     <rPh sb="0" eb="2">
@@ -5086,6 +5087,226 @@
     <rPh sb="4" eb="5">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月25日～3月3日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　22日に行われたプレゼンテーションの資料チェックで</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　頂いた指摘事項を基にプレゼンテーションの修正を行った。</t>
+    <rPh sb="1" eb="2">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　また、アプリの実演ができない状況になった時のために、</t>
+    <rPh sb="8" eb="10">
+      <t>ジツエン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　アプリのキャプチャや動画撮影を行って保険となるものを用意した。</t>
+    <rPh sb="11" eb="13">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　実演で使用する機能の登録機能、編集機能、認証機能の結合試験を行った。</t>
+    <rPh sb="1" eb="3">
+      <t>ジツエン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　機能自体には特に問題となる事はなかったが、</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Nexus7と認証機器の認証がし辛い時があり、機器の認証自体が行えるかというのが実演における一番の課題であると感じた。</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヅラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジツエン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7が認証機器の認証を行えること。</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プレゼン練習</t>
+    <rPh sb="5" eb="7">
+      <t>レンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5975,7 +6196,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="6" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -5990,7 +6211,7 @@
     </row>
     <row r="6" spans="1:41">
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -6005,62 +6226,62 @@
     </row>
     <row r="10" spans="1:41">
       <c r="B10" s="6" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:41">
       <c r="B11" s="6" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:41">
       <c r="B12" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
-      <c r="B14" s="6" t="s">
-        <v>332</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="B13" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:41">
       <c r="B15" s="6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:41">
       <c r="B16" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="B17" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:76">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:76">
-      <c r="B19" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
     <row r="21" spans="1:76">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="A23" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:76">
-      <c r="B22" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:76">
-      <c r="B23" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:76">
       <c r="B24" s="6" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:76">
@@ -6885,7 +7106,7 @@
         <v>298</v>
       </c>
       <c r="J36" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -7196,13 +7417,21 @@
       <c r="E40" s="19">
         <v>41696</v>
       </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
+      <c r="F40" s="19">
+        <v>41698</v>
+      </c>
+      <c r="G40" s="19">
+        <v>41701</v>
+      </c>
       <c r="H40" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29"/>
+      <c r="I40" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" s="29">
+        <v>0.9</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
@@ -7327,10 +7556,10 @@
       <c r="BN41" s="12"/>
       <c r="BO41" s="12"/>
       <c r="BP41" s="12"/>
-      <c r="BQ41" s="13"/>
-      <c r="BR41" s="12"/>
-      <c r="BS41" s="12"/>
-      <c r="BT41" s="12"/>
+      <c r="BQ41" s="28"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="28"/>
+      <c r="BT41" s="28"/>
       <c r="BV41" s="12"/>
       <c r="BW41" s="12"/>
       <c r="BX41" s="13"/>
@@ -7352,16 +7581,16 @@
         <v>41670</v>
       </c>
       <c r="G42" s="19">
-        <v>41676</v>
+        <v>41700</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>219</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="J42" s="29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -7486,12 +7715,12 @@
       <c r="BK43" s="28"/>
       <c r="BL43" s="28"/>
       <c r="BM43" s="28"/>
-      <c r="BN43" s="12"/>
-      <c r="BO43" s="12"/>
-      <c r="BP43" s="12"/>
-      <c r="BQ43" s="13"/>
-      <c r="BR43" s="12"/>
-      <c r="BS43" s="12"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="28"/>
       <c r="BT43" s="12"/>
       <c r="BV43" s="12"/>
       <c r="BW43" s="12"/>
@@ -7981,10 +8210,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCellId="2" sqref="A1 A1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -8038,7 +8267,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8063,50 +8292,65 @@
     </row>
     <row r="9" spans="1:39">
       <c r="C9" s="6" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>171</v>
+      <c r="D10" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>174</v>
+      <c r="D11" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="6" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6" t="s">
+    <row r="21" spans="1:4">
+      <c r="B21" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="6" t="s">
-        <v>173</v>
+    <row r="22" spans="1:4">
+      <c r="C22" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8118,9 +8362,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -8173,7 +8419,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8186,77 +8432,62 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>161</v>
+    <row r="7" spans="1:39">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>125</v>
+      <c r="C9" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="6" t="s">
-        <v>161</v>
+      <c r="A13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>165</v>
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="6" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="6" t="s">
-        <v>167</v>
+    <row r="18" spans="2:3">
+      <c r="C18" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -8323,7 +8554,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8336,77 +8567,77 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" s="6" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>157</v>
+      <c r="B13" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +8649,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8473,7 +8704,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8498,34 +8729,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="6" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="6" t="s">
+      <c r="B19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8538,7 +8799,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8593,7 +8854,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8603,100 +8864,49 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" s="6" t="s">
-        <v>139</v>
+      <c r="C10" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>141</v>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8709,7 +8919,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8764,7 +8974,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8774,92 +8984,100 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" s="6" t="s">
-        <v>127</v>
+      <c r="B10" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="6" t="s">
-        <v>132</v>
+      <c r="C16" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="6" t="s">
-        <v>131</v>
+      <c r="B18" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>134</v>
+      <c r="C20" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="6" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8872,7 +9090,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8927,7 +9145,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -8937,7 +9155,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -8952,68 +9170,78 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4"/>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="6" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -9025,13 +9253,14 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="1.625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
@@ -9078,104 +9307,94 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>104</v>
+      <c r="A2" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" s="5" t="s">
-        <v>105</v>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" s="6" customFormat="1">
-      <c r="B7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" s="6" t="s">
-        <v>105</v>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>109</v>
+      <c r="C11" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="6" t="s">
-        <v>106</v>
+      <c r="C15" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>111</v>
+      <c r="C16" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>113</v>
+      <c r="C17" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
+      <c r="B23" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>101</v>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -9187,11 +9406,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -9243,7 +9460,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -9252,18 +9469,18 @@
       </c>
     </row>
     <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="6" customFormat="1">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -9272,133 +9489,90 @@
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>84</v>
+      <c r="B10" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4" t="s">
-        <v>99</v>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -9450,7 +9624,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -9460,17 +9634,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -9480,86 +9654,2190 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>79</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="104.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8" style="6" customWidth="1"/>
+    <col min="11" max="76" width="2.625" style="6" customWidth="1"/>
+    <col min="77" max="16384" width="1.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="B5" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="B9" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="B11" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="B12" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="B19" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="B22" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="B23" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="B24" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="A26" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+    </row>
+    <row r="28" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="31"/>
+      <c r="BL28" s="31"/>
+      <c r="BM28" s="31"/>
+      <c r="BN28" s="31"/>
+      <c r="BO28" s="31"/>
+      <c r="BP28" s="31"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS28" s="31"/>
+      <c r="BT28" s="31"/>
+      <c r="BU28" s="31"/>
+      <c r="BV28" s="31"/>
+      <c r="BW28" s="31"/>
+      <c r="BX28" s="32"/>
+    </row>
+    <row r="29" spans="1:76" ht="14.25" thickBot="1">
+      <c r="B29" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17">
+        <v>2</v>
+      </c>
+      <c r="M29" s="17">
+        <v>3</v>
+      </c>
+      <c r="N29" s="17">
+        <v>4</v>
+      </c>
+      <c r="O29" s="17">
+        <v>5</v>
+      </c>
+      <c r="P29" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>7</v>
+      </c>
+      <c r="R29" s="17">
+        <v>8</v>
+      </c>
+      <c r="S29" s="17">
+        <v>9</v>
+      </c>
+      <c r="T29" s="17">
+        <v>10</v>
+      </c>
+      <c r="U29" s="17">
+        <v>11</v>
+      </c>
+      <c r="V29" s="17">
+        <v>12</v>
+      </c>
+      <c r="W29" s="17">
+        <v>13</v>
+      </c>
+      <c r="X29" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>17</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>20</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>22</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>23</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>24</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>25</v>
+      </c>
+      <c r="AJ29" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK29" s="17">
+        <v>27</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="17">
+        <v>29</v>
+      </c>
+      <c r="AN29" s="17">
+        <v>30</v>
+      </c>
+      <c r="AO29" s="18">
+        <v>31</v>
+      </c>
+      <c r="AP29" s="16">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="17">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="17">
+        <v>3</v>
+      </c>
+      <c r="AS29" s="17">
+        <v>4</v>
+      </c>
+      <c r="AT29" s="17">
+        <v>5</v>
+      </c>
+      <c r="AU29" s="17">
+        <v>6</v>
+      </c>
+      <c r="AV29" s="17">
+        <v>7</v>
+      </c>
+      <c r="AW29" s="17">
+        <v>8</v>
+      </c>
+      <c r="AX29" s="17">
+        <v>9</v>
+      </c>
+      <c r="AY29" s="17">
+        <v>10</v>
+      </c>
+      <c r="AZ29" s="17">
+        <v>11</v>
+      </c>
+      <c r="BA29" s="17">
+        <v>12</v>
+      </c>
+      <c r="BB29" s="17">
+        <v>13</v>
+      </c>
+      <c r="BC29" s="17">
+        <v>14</v>
+      </c>
+      <c r="BD29" s="17">
+        <v>15</v>
+      </c>
+      <c r="BE29" s="17">
+        <v>16</v>
+      </c>
+      <c r="BF29" s="17">
+        <v>17</v>
+      </c>
+      <c r="BG29" s="17">
+        <v>18</v>
+      </c>
+      <c r="BH29" s="17">
+        <v>19</v>
+      </c>
+      <c r="BI29" s="17">
+        <v>20</v>
+      </c>
+      <c r="BJ29" s="17">
+        <v>21</v>
+      </c>
+      <c r="BK29" s="17">
+        <v>22</v>
+      </c>
+      <c r="BL29" s="17">
+        <v>23</v>
+      </c>
+      <c r="BM29" s="17">
+        <v>24</v>
+      </c>
+      <c r="BN29" s="17">
+        <v>25</v>
+      </c>
+      <c r="BO29" s="17">
+        <v>26</v>
+      </c>
+      <c r="BP29" s="17">
+        <v>27</v>
+      </c>
+      <c r="BQ29" s="18">
+        <v>28</v>
+      </c>
+      <c r="BR29" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="17">
+        <v>2</v>
+      </c>
+      <c r="BT29" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU29" s="17">
+        <v>4</v>
+      </c>
+      <c r="BV29" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW29" s="17">
+        <v>6</v>
+      </c>
+      <c r="BX29" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="B30" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="19">
+        <v>41642</v>
+      </c>
+      <c r="E30" s="19">
+        <v>41643</v>
+      </c>
+      <c r="F30" s="19">
+        <v>41277</v>
+      </c>
+      <c r="G30" s="19">
+        <v>41278</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" s="29">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
+      <c r="AZ30" s="12"/>
+      <c r="BA30" s="12"/>
+      <c r="BB30" s="12"/>
+      <c r="BC30" s="12"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
+      <c r="BK30" s="12"/>
+      <c r="BL30" s="12"/>
+      <c r="BM30" s="12"/>
+      <c r="BN30" s="12"/>
+      <c r="BO30" s="12"/>
+      <c r="BP30" s="12"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="12"/>
+      <c r="BS30" s="12"/>
+      <c r="BT30" s="12"/>
+      <c r="BU30" s="12"/>
+      <c r="BV30" s="12"/>
+      <c r="BW30" s="12"/>
+      <c r="BX30" s="13"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="B31" s="20"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="13"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="B32" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="19">
+        <v>41651</v>
+      </c>
+      <c r="E32" s="19">
+        <v>41661</v>
+      </c>
+      <c r="F32" s="19">
+        <v>41651</v>
+      </c>
+      <c r="G32" s="19">
+        <v>41658</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="13"/>
+    </row>
+    <row r="33" spans="2:76">
+      <c r="B33" s="20"/>
+      <c r="C33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="13"/>
+    </row>
+    <row r="34" spans="2:76">
+      <c r="B34" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="19">
+        <v>41662</v>
+      </c>
+      <c r="E34" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F34" s="19">
+        <v>41659</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+      <c r="AZ34" s="12"/>
+      <c r="BA34" s="12"/>
+      <c r="BB34" s="12"/>
+      <c r="BC34" s="12"/>
+      <c r="BD34" s="12"/>
+      <c r="BE34" s="12"/>
+      <c r="BF34" s="12"/>
+      <c r="BG34" s="12"/>
+      <c r="BH34" s="12"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
+      <c r="BM34" s="12"/>
+      <c r="BN34" s="12"/>
+      <c r="BO34" s="12"/>
+      <c r="BP34" s="12"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="12"/>
+      <c r="BS34" s="12"/>
+      <c r="BT34" s="12"/>
+      <c r="BV34" s="12"/>
+      <c r="BW34" s="12"/>
+      <c r="BX34" s="13"/>
+    </row>
+    <row r="35" spans="2:76">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="28"/>
+      <c r="AZ35" s="28"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
+      <c r="BM35" s="12"/>
+      <c r="BN35" s="12"/>
+      <c r="BO35" s="12"/>
+      <c r="BP35" s="12"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="12"/>
+      <c r="BS35" s="12"/>
+      <c r="BT35" s="12"/>
+      <c r="BV35" s="12"/>
+      <c r="BW35" s="12"/>
+      <c r="BX35" s="13"/>
+    </row>
+    <row r="36" spans="2:76">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="19">
+        <v>41666</v>
+      </c>
+      <c r="E36" s="19">
+        <v>41690</v>
+      </c>
+      <c r="F36" s="19">
+        <v>41664</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
+      <c r="BM36" s="12"/>
+      <c r="BN36" s="12"/>
+      <c r="BO36" s="12"/>
+      <c r="BP36" s="12"/>
+      <c r="BQ36" s="13"/>
+      <c r="BR36" s="12"/>
+      <c r="BS36" s="12"/>
+      <c r="BT36" s="12"/>
+      <c r="BV36" s="12"/>
+      <c r="BW36" s="12"/>
+      <c r="BX36" s="13"/>
+    </row>
+    <row r="37" spans="2:76">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="13"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="13"/>
+    </row>
+    <row r="38" spans="2:76">
+      <c r="B38" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="19">
+        <v>41689</v>
+      </c>
+      <c r="E38" s="19">
+        <v>41693</v>
+      </c>
+      <c r="F38" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G38" s="19">
+        <v>41687</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J38" s="29">
+        <v>1</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="11"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="13"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="13"/>
+    </row>
+    <row r="39" spans="2:76">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
+      <c r="BM39" s="12"/>
+      <c r="BN39" s="12"/>
+      <c r="BO39" s="12"/>
+      <c r="BP39" s="12"/>
+      <c r="BQ39" s="13"/>
+      <c r="BR39" s="12"/>
+      <c r="BS39" s="12"/>
+      <c r="BT39" s="12"/>
+      <c r="BV39" s="12"/>
+      <c r="BW39" s="12"/>
+      <c r="BX39" s="13"/>
+    </row>
+    <row r="40" spans="2:76">
+      <c r="B40" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="19">
+        <v>41692</v>
+      </c>
+      <c r="E40" s="19">
+        <v>41696</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="13"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="12"/>
+      <c r="BA40" s="12"/>
+      <c r="BB40" s="12"/>
+      <c r="BC40" s="12"/>
+      <c r="BD40" s="12"/>
+      <c r="BE40" s="12"/>
+      <c r="BF40" s="12"/>
+      <c r="BG40" s="12"/>
+      <c r="BH40" s="12"/>
+      <c r="BI40" s="12"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+      <c r="BM40" s="11"/>
+      <c r="BN40" s="11"/>
+      <c r="BO40" s="11"/>
+      <c r="BP40" s="12"/>
+      <c r="BQ40" s="13"/>
+      <c r="BR40" s="12"/>
+      <c r="BS40" s="12"/>
+      <c r="BT40" s="12"/>
+      <c r="BV40" s="12"/>
+      <c r="BW40" s="12"/>
+      <c r="BX40" s="13"/>
+    </row>
+    <row r="41" spans="2:76">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="13"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="12"/>
+      <c r="AX41" s="12"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="12"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="12"/>
+      <c r="BG41" s="12"/>
+      <c r="BH41" s="12"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
+      <c r="BM41" s="12"/>
+      <c r="BN41" s="12"/>
+      <c r="BO41" s="12"/>
+      <c r="BP41" s="12"/>
+      <c r="BQ41" s="13"/>
+      <c r="BR41" s="12"/>
+      <c r="BS41" s="12"/>
+      <c r="BT41" s="12"/>
+      <c r="BV41" s="12"/>
+      <c r="BW41" s="12"/>
+      <c r="BX41" s="13"/>
+    </row>
+    <row r="42" spans="2:76">
+      <c r="B42" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="19">
+        <v>41694</v>
+      </c>
+      <c r="E42" s="19">
+        <v>41698</v>
+      </c>
+      <c r="F42" s="19">
+        <v>41670</v>
+      </c>
+      <c r="G42" s="19">
+        <v>41676</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="11"/>
+      <c r="BN42" s="11"/>
+      <c r="BO42" s="11"/>
+      <c r="BP42" s="11"/>
+      <c r="BQ42" s="37"/>
+      <c r="BR42" s="12"/>
+      <c r="BS42" s="12"/>
+      <c r="BT42" s="12"/>
+      <c r="BV42" s="12"/>
+      <c r="BW42" s="12"/>
+      <c r="BX42" s="13"/>
+    </row>
+    <row r="43" spans="2:76">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28"/>
+      <c r="AR43" s="28"/>
+      <c r="AS43" s="28"/>
+      <c r="AT43" s="28"/>
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="28"/>
+      <c r="BA43" s="28"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="13"/>
+      <c r="BR43" s="12"/>
+      <c r="BS43" s="12"/>
+      <c r="BT43" s="12"/>
+      <c r="BV43" s="12"/>
+      <c r="BW43" s="12"/>
+      <c r="BX43" s="13"/>
+    </row>
+    <row r="44" spans="2:76">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="19">
+        <v>41699</v>
+      </c>
+      <c r="E44" s="19">
+        <v>41705</v>
+      </c>
+      <c r="F44" s="19">
+        <v>41683</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="13"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="11"/>
+      <c r="BT44" s="11"/>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="11"/>
+      <c r="BW44" s="11"/>
+      <c r="BX44" s="37"/>
+    </row>
+    <row r="45" spans="2:76">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="28"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="28"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="13"/>
+      <c r="BR45" s="12"/>
+      <c r="BS45" s="12"/>
+      <c r="BT45" s="12"/>
+      <c r="BV45" s="12"/>
+      <c r="BW45" s="12"/>
+      <c r="BX45" s="13"/>
+    </row>
+    <row r="46" spans="2:76">
+      <c r="B46" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44"/>
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44"/>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="44"/>
+      <c r="AX46" s="44"/>
+      <c r="AY46" s="44"/>
+      <c r="AZ46" s="44"/>
+      <c r="BA46" s="44"/>
+      <c r="BB46" s="44"/>
+      <c r="BC46" s="45"/>
+      <c r="BD46" s="44"/>
+      <c r="BE46" s="44"/>
+      <c r="BF46" s="44"/>
+      <c r="BG46" s="44"/>
+      <c r="BH46" s="44"/>
+      <c r="BI46" s="44"/>
+      <c r="BJ46" s="44"/>
+      <c r="BK46" s="44"/>
+      <c r="BL46" s="44"/>
+      <c r="BM46" s="44"/>
+      <c r="BN46" s="44"/>
+      <c r="BO46" s="44"/>
+      <c r="BP46" s="44"/>
+      <c r="BQ46" s="46"/>
+      <c r="BR46" s="44"/>
+      <c r="BS46" s="44"/>
+      <c r="BT46" s="44"/>
+      <c r="BU46" s="44"/>
+      <c r="BV46" s="44"/>
+      <c r="BW46" s="44"/>
+      <c r="BX46" s="46"/>
+    </row>
+    <row r="47" spans="2:76">
+      <c r="B47" s="39"/>
+      <c r="C47" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="44"/>
+      <c r="AR47" s="44"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="44"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="44"/>
+      <c r="AW47" s="44"/>
+      <c r="AX47" s="44"/>
+      <c r="AY47" s="44"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="44"/>
+      <c r="BB47" s="44"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="44"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="44"/>
+      <c r="BG47" s="44"/>
+      <c r="BH47" s="44"/>
+      <c r="BI47" s="44"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="44"/>
+      <c r="BL47" s="44"/>
+      <c r="BM47" s="44"/>
+      <c r="BN47" s="44"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="44"/>
+      <c r="BQ47" s="46"/>
+      <c r="BR47" s="44"/>
+      <c r="BS47" s="44"/>
+      <c r="BT47" s="44"/>
+      <c r="BU47" s="44"/>
+      <c r="BV47" s="44"/>
+      <c r="BW47" s="44"/>
+      <c r="BX47" s="46"/>
+    </row>
+    <row r="48" spans="2:76">
+      <c r="B48" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="44"/>
+      <c r="AR48" s="44"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="44"/>
+      <c r="AU48" s="44"/>
+      <c r="AV48" s="44"/>
+      <c r="AW48" s="44"/>
+      <c r="AX48" s="44"/>
+      <c r="AY48" s="44"/>
+      <c r="AZ48" s="44"/>
+      <c r="BA48" s="44"/>
+      <c r="BB48" s="44"/>
+      <c r="BC48" s="45"/>
+      <c r="BD48" s="44"/>
+      <c r="BE48" s="44"/>
+      <c r="BF48" s="44"/>
+      <c r="BG48" s="44"/>
+      <c r="BH48" s="44"/>
+      <c r="BI48" s="44"/>
+      <c r="BJ48" s="44"/>
+      <c r="BK48" s="44"/>
+      <c r="BL48" s="44"/>
+      <c r="BM48" s="44"/>
+      <c r="BN48" s="44"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="44"/>
+      <c r="BQ48" s="46"/>
+      <c r="BR48" s="44"/>
+      <c r="BS48" s="44"/>
+      <c r="BT48" s="44"/>
+      <c r="BU48" s="44"/>
+      <c r="BV48" s="44"/>
+      <c r="BW48" s="44"/>
+      <c r="BX48" s="46"/>
+    </row>
+    <row r="49" spans="2:76" ht="14.25" thickBot="1">
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="50"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
+      <c r="AR49" s="50"/>
+      <c r="AS49" s="50"/>
+      <c r="AT49" s="50"/>
+      <c r="AU49" s="50"/>
+      <c r="AV49" s="50"/>
+      <c r="AW49" s="50"/>
+      <c r="AX49" s="50"/>
+      <c r="AY49" s="50"/>
+      <c r="AZ49" s="50"/>
+      <c r="BA49" s="50"/>
+      <c r="BB49" s="50"/>
+      <c r="BC49" s="50"/>
+      <c r="BD49" s="50"/>
+      <c r="BE49" s="50"/>
+      <c r="BF49" s="50"/>
+      <c r="BG49" s="50"/>
+      <c r="BH49" s="50"/>
+      <c r="BI49" s="50"/>
+      <c r="BJ49" s="50"/>
+      <c r="BK49" s="50"/>
+      <c r="BL49" s="50"/>
+      <c r="BM49" s="50"/>
+      <c r="BN49" s="50"/>
+      <c r="BO49" s="50"/>
+      <c r="BP49" s="50"/>
+      <c r="BQ49" s="51"/>
+      <c r="BR49" s="50"/>
+      <c r="BS49" s="50"/>
+      <c r="BT49" s="50"/>
+      <c r="BU49" s="50"/>
+      <c r="BV49" s="50"/>
+      <c r="BW49" s="50"/>
+      <c r="BX49" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9568,7 +11846,948 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B15:C17">
+    <sortCondition ref="B18"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX51"/>
   <sheetViews>
@@ -11644,774 +14863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B15:C17">
-    <sortCondition ref="B18"/>
-  </sortState>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX48"/>
   <sheetViews>
@@ -14462,7 +16914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX54"/>
   <sheetViews>
@@ -16539,7 +18991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX61"/>
   <sheetViews>
@@ -18640,7 +21092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX45"/>
   <sheetViews>
@@ -20528,7 +22980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX50"/>
   <sheetViews>
@@ -22508,7 +24960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX40"/>
   <sheetViews>
@@ -24240,156 +26692,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCellId="2" sqref="A1 A1 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="1.625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="D10" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="D14" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="D23" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>